--- a/020-内部設計/023-検索機能/クラス仕様書_ConnectionManager .xlsx
+++ b/020-内部設計/023-検索機能/クラス仕様書_ConnectionManager .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AAC0A6-2E7D-4C12-97AC-362ECBA8D037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAEECF3-A221-47D6-AEF8-9CB28C5D40E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -294,10 +294,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>getConnection()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>puclic static</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -383,10 +379,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>connection</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>例外処理</t>
     <rPh sb="0" eb="4">
       <t>レイガイショリ</t>
@@ -461,19 +453,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>1-1.　クラス参照エラーを呼び出し元に投げる。</t>
-  </si>
-  <si>
-    <t>1. 　処理欄の項番2でクラス参照エラーが起きた場合、</t>
-    <rPh sb="4" eb="7">
-      <t>ショリラン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウバン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>柴田 隼輔</t>
     <rPh sb="0" eb="5">
       <t>シバ</t>
@@ -515,13 +494,6 @@
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベース接続</t>
-    <rPh sb="6" eb="8">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>データベースへの接続情報。</t>
@@ -582,14 +554,60 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>3.　接続情報を返却。</t>
-    <rPh sb="3" eb="7">
+    <t>2-1.　クラス参照エラーを呼び出し元に投げる。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1. 　処理欄の項番2でSQLエラーが起きた場合、</t>
+    <rPh sb="4" eb="7">
+      <t>ショリラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1-1.　SQLエラーを呼び出し元に投げる。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>con</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2. 　処理欄の項番1でクラス参照エラーが起きた場合、</t>
+    <rPh sb="4" eb="7">
+      <t>ショリラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3.　データベース接続情報を返却。</t>
+    <rPh sb="9" eb="13">
       <t>セツゾクジョウホウ</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="14" eb="16">
       <t>ヘンキャク</t>
     </rPh>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>データベース接続情報</t>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>getConnection</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1747,7 +1765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IY25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
@@ -1779,7 +1797,7 @@
       <c r="P1" s="91"/>
       <c r="Q1" s="91"/>
       <c r="R1" s="90" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S1" s="90"/>
       <c r="T1" s="90"/>
@@ -1796,7 +1814,7 @@
       <c r="AC1" s="91"/>
       <c r="AD1" s="91"/>
       <c r="AE1" s="90" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AF1" s="90"/>
       <c r="AG1" s="90"/>
@@ -1815,7 +1833,7 @@
       <c r="AR1" s="91"/>
       <c r="AS1" s="91"/>
       <c r="AT1" s="90" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AU1" s="90"/>
       <c r="AV1" s="90"/>
@@ -2849,7 +2867,7 @@
       <c r="AG13" s="74"/>
       <c r="AH13" s="75"/>
       <c r="AI13" s="76" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AJ13" s="76"/>
       <c r="AK13" s="76"/>
@@ -2930,7 +2948,7 @@
       <c r="AG14" s="74"/>
       <c r="AH14" s="75"/>
       <c r="AI14" s="76" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AJ14" s="76"/>
       <c r="AK14" s="76"/>
@@ -3011,7 +3029,7 @@
       <c r="AG15" s="74"/>
       <c r="AH15" s="75"/>
       <c r="AI15" s="76" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AJ15" s="76"/>
       <c r="AK15" s="76"/>
@@ -3215,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D20" s="71"/>
       <c r="E20" s="71"/>
@@ -3225,7 +3243,7 @@
       <c r="I20" s="71"/>
       <c r="J20" s="72"/>
       <c r="K20" s="71" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="L20" s="71"/>
       <c r="M20" s="71"/>
@@ -3235,7 +3253,7 @@
       <c r="Q20" s="71"/>
       <c r="R20" s="72"/>
       <c r="S20" s="71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T20" s="71"/>
       <c r="U20" s="71"/>
@@ -3255,7 +3273,7 @@
       <c r="AE20" s="106"/>
       <c r="AF20" s="106"/>
       <c r="AG20" s="105" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AH20" s="105"/>
       <c r="AI20" s="105"/>
@@ -3827,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="78"/>
       <c r="E24" s="78"/>
@@ -3837,7 +3855,7 @@
       <c r="I24" s="78"/>
       <c r="J24" s="79"/>
       <c r="K24" s="77" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L24" s="78"/>
       <c r="M24" s="78"/>
@@ -3847,7 +3865,7 @@
       <c r="Q24" s="78"/>
       <c r="R24" s="79"/>
       <c r="S24" s="80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T24" s="80"/>
       <c r="U24" s="80"/>
@@ -3857,7 +3875,7 @@
       <c r="Y24" s="80"/>
       <c r="Z24" s="80"/>
       <c r="AA24" s="81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB24" s="82"/>
       <c r="AC24" s="82"/>
@@ -4098,7 +4116,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="78"/>
       <c r="E25" s="78"/>
@@ -4108,7 +4126,7 @@
       <c r="I25" s="78"/>
       <c r="J25" s="79"/>
       <c r="K25" s="77" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L25" s="78"/>
       <c r="M25" s="78"/>
@@ -4118,7 +4136,7 @@
       <c r="Q25" s="78"/>
       <c r="R25" s="79"/>
       <c r="S25" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T25" s="80"/>
       <c r="U25" s="80"/>
@@ -4128,7 +4146,7 @@
       <c r="Y25" s="80"/>
       <c r="Z25" s="80"/>
       <c r="AA25" s="81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB25" s="82"/>
       <c r="AC25" s="82"/>
@@ -4473,9 +4491,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IY46"/>
+  <dimension ref="A1:IY47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="86" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="86" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
@@ -4548,7 +4566,7 @@
       <c r="AR1" s="91"/>
       <c r="AS1" s="91"/>
       <c r="AT1" s="90" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AU1" s="90"/>
       <c r="AV1" s="90"/>
@@ -4835,7 +4853,7 @@
       <c r="BB2" s="91"/>
       <c r="BC2" s="91"/>
       <c r="BD2" s="93">
-        <v>45917</v>
+        <v>45924</v>
       </c>
       <c r="BE2" s="93"/>
       <c r="BF2" s="93"/>
@@ -5050,7 +5068,7 @@
       <c r="E4" s="86"/>
       <c r="F4" s="86"/>
       <c r="G4" s="118" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H4" s="118"/>
       <c r="I4" s="118"/>
@@ -5314,7 +5332,7 @@
       <c r="E5" s="119"/>
       <c r="F5" s="119"/>
       <c r="G5" s="120" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="120"/>
       <c r="I5" s="120"/>
@@ -6368,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="80"/>
       <c r="E9" s="80"/>
@@ -6378,7 +6396,7 @@
       <c r="I9" s="80"/>
       <c r="J9" s="80"/>
       <c r="K9" s="80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L9" s="80"/>
       <c r="M9" s="80"/>
@@ -6388,7 +6406,7 @@
       <c r="Q9" s="80"/>
       <c r="R9" s="80"/>
       <c r="S9" s="80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T9" s="80"/>
       <c r="U9" s="80"/>
@@ -6398,7 +6416,7 @@
       <c r="Y9" s="80"/>
       <c r="Z9" s="80"/>
       <c r="AA9" s="113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB9" s="113"/>
       <c r="AC9" s="113"/>
@@ -7434,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D13" s="80"/>
       <c r="E13" s="80"/>
@@ -7444,7 +7462,7 @@
       <c r="I13" s="80"/>
       <c r="J13" s="80"/>
       <c r="K13" s="80" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="L13" s="80"/>
       <c r="M13" s="80"/>
@@ -7454,7 +7472,7 @@
       <c r="Q13" s="80"/>
       <c r="R13" s="80"/>
       <c r="S13" s="80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T13" s="80"/>
       <c r="U13" s="80"/>
@@ -7464,7 +7482,7 @@
       <c r="Y13" s="80"/>
       <c r="Z13" s="80"/>
       <c r="AA13" s="113" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AB13" s="113"/>
       <c r="AC13" s="113"/>
@@ -8308,7 +8326,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
@@ -8318,7 +8336,7 @@
       <c r="I17" s="84"/>
       <c r="J17" s="85"/>
       <c r="K17" s="71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L17" s="71"/>
       <c r="M17" s="71"/>
@@ -8328,7 +8346,7 @@
       <c r="Q17" s="71"/>
       <c r="R17" s="72"/>
       <c r="S17" s="71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T17" s="71"/>
       <c r="U17" s="71"/>
@@ -8346,7 +8364,7 @@
       </c>
       <c r="AD17" s="117"/>
       <c r="AE17" s="114" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AF17" s="105"/>
       <c r="AG17" s="105"/>
@@ -8368,7 +8386,7 @@
       <c r="AW17" s="105"/>
       <c r="AX17" s="105"/>
       <c r="AY17" s="115" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AZ17" s="115"/>
       <c r="BA17" s="115"/>
@@ -8585,7 +8603,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D18" s="84"/>
       <c r="E18" s="84"/>
@@ -8595,7 +8613,7 @@
       <c r="I18" s="84"/>
       <c r="J18" s="85"/>
       <c r="K18" s="71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L18" s="71"/>
       <c r="M18" s="71"/>
@@ -8605,7 +8623,7 @@
       <c r="Q18" s="71"/>
       <c r="R18" s="72"/>
       <c r="S18" s="71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T18" s="71"/>
       <c r="U18" s="71"/>
@@ -8623,7 +8641,7 @@
       </c>
       <c r="AD18" s="117"/>
       <c r="AE18" s="114" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF18" s="105"/>
       <c r="AG18" s="105"/>
@@ -8645,7 +8663,7 @@
       <c r="AW18" s="105"/>
       <c r="AX18" s="105"/>
       <c r="AY18" s="115" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AZ18" s="115"/>
       <c r="BA18" s="115"/>
@@ -9918,7 +9936,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
@@ -9928,7 +9946,7 @@
       <c r="I23" s="80"/>
       <c r="J23" s="80"/>
       <c r="K23" s="80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L23" s="80"/>
       <c r="M23" s="80"/>
@@ -9938,7 +9956,7 @@
       <c r="Q23" s="80"/>
       <c r="R23" s="80"/>
       <c r="S23" s="80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T23" s="80"/>
       <c r="U23" s="80"/>
@@ -9948,7 +9966,7 @@
       <c r="Y23" s="80"/>
       <c r="Z23" s="80"/>
       <c r="AA23" s="113" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB23" s="113"/>
       <c r="AC23" s="113"/>
@@ -10189,7 +10207,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
@@ -10199,7 +10217,7 @@
       <c r="I24" s="80"/>
       <c r="J24" s="80"/>
       <c r="K24" s="80" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L24" s="80"/>
       <c r="M24" s="80"/>
@@ -10209,7 +10227,7 @@
       <c r="Q24" s="80"/>
       <c r="R24" s="80"/>
       <c r="S24" s="80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T24" s="80"/>
       <c r="U24" s="80"/>
@@ -10219,7 +10237,7 @@
       <c r="Y24" s="80"/>
       <c r="Z24" s="80"/>
       <c r="AA24" s="113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB24" s="113"/>
       <c r="AC24" s="113"/>
@@ -11241,7 +11259,7 @@
     <row r="28" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -11760,7 +11778,7 @@
     <row r="30" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
       <c r="B30" s="34" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -13578,7 +13596,7 @@
     <row r="37" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="110" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" s="111"/>
       <c r="D37" s="111"/>
@@ -13840,7 +13858,7 @@
     <row r="38" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="34" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D38" s="54"/>
       <c r="E38" s="54"/>
@@ -14089,7 +14107,7 @@
       <c r="A39" s="21"/>
       <c r="B39" s="34"/>
       <c r="C39" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D39" s="54"/>
       <c r="E39" s="54"/>
@@ -14582,7 +14600,9 @@
     </row>
     <row r="41" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
-      <c r="B41" s="34"/>
+      <c r="B41" s="34" t="s">
+        <v>97</v>
+      </c>
       <c r="D41" s="54"/>
       <c r="E41" s="54"/>
       <c r="F41" s="54"/>
@@ -14596,28 +14616,25 @@
       <c r="N41" s="54"/>
       <c r="O41" s="54"/>
       <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="S41" s="63"/>
-      <c r="U41" s="64"/>
-      <c r="V41" s="64"/>
-      <c r="W41" s="64"/>
-      <c r="X41" s="64"/>
+      <c r="Q41" s="55"/>
+      <c r="T41" s="56"/>
       <c r="Y41" s="57"/>
-      <c r="Z41" s="57"/>
-      <c r="AA41" s="57"/>
-      <c r="AB41" s="57"/>
-      <c r="AC41" s="57"/>
-      <c r="AD41" s="57"/>
       <c r="AE41" s="58"/>
       <c r="AF41" s="58"/>
       <c r="AG41" s="58"/>
-      <c r="AH41" s="58"/>
-      <c r="AI41" s="58"/>
-      <c r="AJ41" s="58"/>
-      <c r="AK41" s="58"/>
-      <c r="AL41" s="57"/>
-      <c r="AT41" s="54"/>
-      <c r="AU41" s="65"/>
+      <c r="AH41" s="59"/>
+      <c r="AI41" s="59"/>
+      <c r="AJ41" s="59"/>
+      <c r="AK41" s="59"/>
+      <c r="AL41" s="59"/>
+      <c r="AM41" s="59"/>
+      <c r="AN41" s="59"/>
+      <c r="AO41" s="59"/>
+      <c r="AP41" s="59"/>
+      <c r="AQ41" s="59"/>
+      <c r="AR41" s="59"/>
+      <c r="AS41" s="59"/>
+      <c r="AU41" s="60"/>
       <c r="AW41" s="54"/>
       <c r="AX41" s="54"/>
       <c r="AY41" s="54"/>
@@ -14831,65 +14848,57 @@
     </row>
     <row r="42" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="67"/>
-      <c r="P42" s="67"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="46"/>
-      <c r="AB42" s="46"/>
-      <c r="AC42" s="46"/>
-      <c r="AD42" s="46"/>
-      <c r="AE42" s="45"/>
-      <c r="AF42" s="45"/>
-      <c r="AG42" s="45"/>
-      <c r="AH42" s="45"/>
-      <c r="AI42" s="45"/>
-      <c r="AJ42" s="45"/>
-      <c r="AK42" s="45"/>
-      <c r="AL42" s="46"/>
-      <c r="AM42" s="43"/>
-      <c r="AN42" s="43"/>
-      <c r="AO42" s="43"/>
-      <c r="AP42" s="43"/>
-      <c r="AQ42" s="43"/>
-      <c r="AR42" s="43"/>
-      <c r="AS42" s="43"/>
-      <c r="AT42" s="67"/>
-      <c r="AU42" s="26"/>
-      <c r="AV42" s="67"/>
-      <c r="AW42" s="67"/>
-      <c r="AX42" s="67"/>
-      <c r="AY42" s="67"/>
-      <c r="AZ42" s="67"/>
-      <c r="BA42" s="67"/>
-      <c r="BB42" s="68"/>
-      <c r="BC42" s="68"/>
-      <c r="BD42" s="68"/>
-      <c r="BE42" s="68"/>
-      <c r="BF42" s="68"/>
-      <c r="BG42" s="68"/>
-      <c r="BH42" s="69"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="S42" s="63"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="64"/>
+      <c r="Y42" s="57"/>
+      <c r="Z42" s="57"/>
+      <c r="AA42" s="57"/>
+      <c r="AB42" s="57"/>
+      <c r="AC42" s="57"/>
+      <c r="AD42" s="57"/>
+      <c r="AE42" s="58"/>
+      <c r="AF42" s="58"/>
+      <c r="AG42" s="58"/>
+      <c r="AH42" s="58"/>
+      <c r="AI42" s="58"/>
+      <c r="AJ42" s="58"/>
+      <c r="AK42" s="58"/>
+      <c r="AL42" s="57"/>
+      <c r="AT42" s="54"/>
+      <c r="AU42" s="65"/>
+      <c r="AW42" s="54"/>
+      <c r="AX42" s="54"/>
+      <c r="AY42" s="54"/>
+      <c r="AZ42" s="54"/>
+      <c r="BA42" s="54"/>
+      <c r="BB42" s="61"/>
+      <c r="BC42" s="61"/>
+      <c r="BD42" s="61"/>
+      <c r="BE42" s="61"/>
+      <c r="BF42" s="61"/>
+      <c r="BG42" s="61"/>
+      <c r="BH42" s="62"/>
       <c r="BI42" s="22"/>
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1"/>
@@ -15090,68 +15099,68 @@
       <c r="IX42" s="1"/>
     </row>
     <row r="43" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="16"/>
-      <c r="AC43" s="16"/>
-      <c r="AD43" s="16"/>
-      <c r="AE43" s="11"/>
-      <c r="AF43" s="11"/>
-      <c r="AG43" s="11"/>
-      <c r="AH43" s="12"/>
-      <c r="AI43" s="12"/>
-      <c r="AJ43" s="12"/>
-      <c r="AK43" s="12"/>
-      <c r="AL43" s="12"/>
-      <c r="AM43" s="12"/>
-      <c r="AN43" s="12"/>
-      <c r="AO43" s="12"/>
-      <c r="AP43" s="12"/>
-      <c r="AQ43" s="12"/>
-      <c r="AR43" s="12"/>
-      <c r="AS43" s="12"/>
-      <c r="AT43" s="19"/>
-      <c r="AU43" s="14"/>
-      <c r="AV43" s="19"/>
-      <c r="AW43" s="7"/>
-      <c r="AX43" s="7"/>
-      <c r="AY43" s="7"/>
-      <c r="AZ43" s="7"/>
-      <c r="BA43" s="7"/>
-      <c r="BB43" s="10"/>
-      <c r="BC43" s="10"/>
-      <c r="BD43" s="10"/>
-      <c r="BE43" s="10"/>
-      <c r="BF43" s="10"/>
-      <c r="BG43" s="10"/>
-      <c r="BH43" s="10"/>
-      <c r="BI43" s="10"/>
-      <c r="BJ43" s="70"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="46"/>
+      <c r="Z43" s="46"/>
+      <c r="AA43" s="46"/>
+      <c r="AB43" s="46"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="46"/>
+      <c r="AE43" s="45"/>
+      <c r="AF43" s="45"/>
+      <c r="AG43" s="45"/>
+      <c r="AH43" s="45"/>
+      <c r="AI43" s="45"/>
+      <c r="AJ43" s="45"/>
+      <c r="AK43" s="45"/>
+      <c r="AL43" s="46"/>
+      <c r="AM43" s="43"/>
+      <c r="AN43" s="43"/>
+      <c r="AO43" s="43"/>
+      <c r="AP43" s="43"/>
+      <c r="AQ43" s="43"/>
+      <c r="AR43" s="43"/>
+      <c r="AS43" s="43"/>
+      <c r="AT43" s="67"/>
+      <c r="AU43" s="26"/>
+      <c r="AV43" s="67"/>
+      <c r="AW43" s="67"/>
+      <c r="AX43" s="67"/>
+      <c r="AY43" s="67"/>
+      <c r="AZ43" s="67"/>
+      <c r="BA43" s="67"/>
+      <c r="BB43" s="68"/>
+      <c r="BC43" s="68"/>
+      <c r="BD43" s="68"/>
+      <c r="BE43" s="68"/>
+      <c r="BF43" s="68"/>
+      <c r="BG43" s="68"/>
+      <c r="BH43" s="69"/>
+      <c r="BI43" s="22"/>
+      <c r="BJ43" s="1"/>
       <c r="BK43" s="1"/>
       <c r="BL43" s="1"/>
       <c r="BM43" s="1"/>
@@ -15350,68 +15359,68 @@
       <c r="IX43" s="1"/>
     </row>
     <row r="44" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
-      <c r="AD44" s="25"/>
-      <c r="AE44" s="25"/>
-      <c r="AF44" s="25"/>
-      <c r="AG44" s="25"/>
-      <c r="AH44" s="25"/>
-      <c r="AI44" s="25"/>
-      <c r="AJ44" s="25"/>
-      <c r="AK44" s="25"/>
-      <c r="AL44" s="25"/>
-      <c r="AM44" s="25"/>
-      <c r="AN44" s="25"/>
-      <c r="AO44" s="25"/>
-      <c r="AP44" s="25"/>
-      <c r="AQ44" s="25"/>
-      <c r="AR44" s="25"/>
-      <c r="AS44" s="25"/>
-      <c r="AT44" s="24"/>
-      <c r="AU44" s="24"/>
-      <c r="AV44" s="26"/>
-      <c r="AW44" s="24"/>
-      <c r="AX44" s="24"/>
-      <c r="AY44" s="24"/>
-      <c r="AZ44" s="24"/>
-      <c r="BA44" s="24"/>
-      <c r="BB44" s="24"/>
-      <c r="BC44" s="24"/>
-      <c r="BD44" s="24"/>
-      <c r="BE44" s="24"/>
-      <c r="BF44" s="24"/>
-      <c r="BG44" s="24"/>
-      <c r="BH44" s="24"/>
-      <c r="BI44" s="27"/>
-      <c r="BJ44" s="1"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="12"/>
+      <c r="AO44" s="12"/>
+      <c r="AP44" s="12"/>
+      <c r="AQ44" s="12"/>
+      <c r="AR44" s="12"/>
+      <c r="AS44" s="12"/>
+      <c r="AT44" s="19"/>
+      <c r="AU44" s="14"/>
+      <c r="AV44" s="19"/>
+      <c r="AW44" s="7"/>
+      <c r="AX44" s="7"/>
+      <c r="AY44" s="7"/>
+      <c r="AZ44" s="7"/>
+      <c r="BA44" s="7"/>
+      <c r="BB44" s="10"/>
+      <c r="BC44" s="10"/>
+      <c r="BD44" s="10"/>
+      <c r="BE44" s="10"/>
+      <c r="BF44" s="10"/>
+      <c r="BG44" s="10"/>
+      <c r="BH44" s="10"/>
+      <c r="BI44" s="10"/>
+      <c r="BJ44" s="70"/>
       <c r="BK44" s="1"/>
       <c r="BL44" s="1"/>
       <c r="BM44" s="1"/>
@@ -15610,67 +15619,67 @@
       <c r="IX44" s="1"/>
     </row>
     <row r="45" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="14"/>
-      <c r="Y45" s="14"/>
-      <c r="Z45" s="14"/>
-      <c r="AA45" s="14"/>
-      <c r="AB45" s="14"/>
-      <c r="AC45" s="14"/>
-      <c r="AD45" s="14"/>
-      <c r="AE45" s="14"/>
-      <c r="AF45" s="14"/>
-      <c r="AG45" s="14"/>
-      <c r="AH45" s="14"/>
-      <c r="AI45" s="14"/>
-      <c r="AJ45" s="14"/>
-      <c r="AK45" s="14"/>
-      <c r="AL45" s="14"/>
-      <c r="AM45" s="14"/>
-      <c r="AN45" s="14"/>
-      <c r="AO45" s="14"/>
-      <c r="AP45" s="14"/>
-      <c r="AQ45" s="14"/>
-      <c r="AR45" s="14"/>
-      <c r="AS45" s="14"/>
-      <c r="AT45" s="14"/>
-      <c r="AU45" s="14"/>
-      <c r="AV45" s="14"/>
-      <c r="AW45" s="14"/>
-      <c r="AX45" s="14"/>
-      <c r="AY45" s="14"/>
-      <c r="AZ45" s="14"/>
-      <c r="BA45" s="14"/>
-      <c r="BB45" s="14"/>
-      <c r="BC45" s="14"/>
-      <c r="BD45" s="14"/>
-      <c r="BE45" s="14"/>
-      <c r="BF45" s="14"/>
-      <c r="BG45" s="14"/>
-      <c r="BH45" s="14"/>
-      <c r="BI45" s="14"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
+      <c r="AD45" s="25"/>
+      <c r="AE45" s="25"/>
+      <c r="AF45" s="25"/>
+      <c r="AG45" s="25"/>
+      <c r="AH45" s="25"/>
+      <c r="AI45" s="25"/>
+      <c r="AJ45" s="25"/>
+      <c r="AK45" s="25"/>
+      <c r="AL45" s="25"/>
+      <c r="AM45" s="25"/>
+      <c r="AN45" s="25"/>
+      <c r="AO45" s="25"/>
+      <c r="AP45" s="25"/>
+      <c r="AQ45" s="25"/>
+      <c r="AR45" s="25"/>
+      <c r="AS45" s="25"/>
+      <c r="AT45" s="24"/>
+      <c r="AU45" s="24"/>
+      <c r="AV45" s="26"/>
+      <c r="AW45" s="24"/>
+      <c r="AX45" s="24"/>
+      <c r="AY45" s="24"/>
+      <c r="AZ45" s="24"/>
+      <c r="BA45" s="24"/>
+      <c r="BB45" s="24"/>
+      <c r="BC45" s="24"/>
+      <c r="BD45" s="24"/>
+      <c r="BE45" s="24"/>
+      <c r="BF45" s="24"/>
+      <c r="BG45" s="24"/>
+      <c r="BH45" s="24"/>
+      <c r="BI45" s="27"/>
       <c r="BJ45" s="1"/>
       <c r="BK45" s="1"/>
       <c r="BL45" s="1"/>
@@ -15870,67 +15879,67 @@
       <c r="IX45" s="1"/>
     </row>
     <row r="46" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="13"/>
-      <c r="AE46" s="13"/>
-      <c r="AF46" s="13"/>
-      <c r="AG46" s="13"/>
-      <c r="AH46" s="13"/>
-      <c r="AI46" s="13"/>
-      <c r="AJ46" s="13"/>
-      <c r="AK46" s="13"/>
-      <c r="AL46" s="13"/>
-      <c r="AM46" s="13"/>
-      <c r="AN46" s="13"/>
-      <c r="AO46" s="13"/>
-      <c r="AP46" s="13"/>
-      <c r="AQ46" s="13"/>
-      <c r="AR46" s="13"/>
-      <c r="AS46" s="13"/>
-      <c r="AT46" s="13"/>
-      <c r="AU46" s="13"/>
-      <c r="AV46" s="13"/>
-      <c r="AW46" s="13"/>
-      <c r="AX46" s="13"/>
-      <c r="AY46" s="13"/>
-      <c r="AZ46" s="13"/>
-      <c r="BA46" s="13"/>
-      <c r="BB46" s="13"/>
-      <c r="BC46" s="13"/>
-      <c r="BD46" s="13"/>
-      <c r="BE46" s="13"/>
-      <c r="BF46" s="13"/>
-      <c r="BG46" s="13"/>
-      <c r="BH46" s="13"/>
-      <c r="BI46" s="13"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="14"/>
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="14"/>
+      <c r="AI46" s="14"/>
+      <c r="AJ46" s="14"/>
+      <c r="AK46" s="14"/>
+      <c r="AL46" s="14"/>
+      <c r="AM46" s="14"/>
+      <c r="AN46" s="14"/>
+      <c r="AO46" s="14"/>
+      <c r="AP46" s="14"/>
+      <c r="AQ46" s="14"/>
+      <c r="AR46" s="14"/>
+      <c r="AS46" s="14"/>
+      <c r="AT46" s="14"/>
+      <c r="AU46" s="14"/>
+      <c r="AV46" s="14"/>
+      <c r="AW46" s="14"/>
+      <c r="AX46" s="14"/>
+      <c r="AY46" s="14"/>
+      <c r="AZ46" s="14"/>
+      <c r="BA46" s="14"/>
+      <c r="BB46" s="14"/>
+      <c r="BC46" s="14"/>
+      <c r="BD46" s="14"/>
+      <c r="BE46" s="14"/>
+      <c r="BF46" s="14"/>
+      <c r="BG46" s="14"/>
+      <c r="BH46" s="14"/>
+      <c r="BI46" s="14"/>
       <c r="BJ46" s="1"/>
       <c r="BK46" s="1"/>
       <c r="BL46" s="1"/>
@@ -16128,6 +16137,266 @@
       <c r="IV46" s="1"/>
       <c r="IW46" s="1"/>
       <c r="IX46" s="1"/>
+    </row>
+    <row r="47" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="13"/>
+      <c r="AC47" s="13"/>
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="13"/>
+      <c r="AF47" s="13"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="13"/>
+      <c r="AI47" s="13"/>
+      <c r="AJ47" s="13"/>
+      <c r="AK47" s="13"/>
+      <c r="AL47" s="13"/>
+      <c r="AM47" s="13"/>
+      <c r="AN47" s="13"/>
+      <c r="AO47" s="13"/>
+      <c r="AP47" s="13"/>
+      <c r="AQ47" s="13"/>
+      <c r="AR47" s="13"/>
+      <c r="AS47" s="13"/>
+      <c r="AT47" s="13"/>
+      <c r="AU47" s="13"/>
+      <c r="AV47" s="13"/>
+      <c r="AW47" s="13"/>
+      <c r="AX47" s="13"/>
+      <c r="AY47" s="13"/>
+      <c r="AZ47" s="13"/>
+      <c r="BA47" s="13"/>
+      <c r="BB47" s="13"/>
+      <c r="BC47" s="13"/>
+      <c r="BD47" s="13"/>
+      <c r="BE47" s="13"/>
+      <c r="BF47" s="13"/>
+      <c r="BG47" s="13"/>
+      <c r="BH47" s="13"/>
+      <c r="BI47" s="13"/>
+      <c r="BJ47" s="1"/>
+      <c r="BK47" s="1"/>
+      <c r="BL47" s="1"/>
+      <c r="BM47" s="1"/>
+      <c r="BN47" s="1"/>
+      <c r="BO47" s="1"/>
+      <c r="BP47" s="1"/>
+      <c r="BQ47" s="1"/>
+      <c r="BR47" s="1"/>
+      <c r="BS47" s="1"/>
+      <c r="BT47" s="1"/>
+      <c r="BU47" s="1"/>
+      <c r="BV47" s="1"/>
+      <c r="BW47" s="1"/>
+      <c r="BX47" s="1"/>
+      <c r="BY47" s="1"/>
+      <c r="BZ47" s="1"/>
+      <c r="CA47" s="1"/>
+      <c r="CB47" s="1"/>
+      <c r="CC47" s="1"/>
+      <c r="CD47" s="1"/>
+      <c r="CE47" s="1"/>
+      <c r="CF47" s="1"/>
+      <c r="CG47" s="1"/>
+      <c r="CH47" s="1"/>
+      <c r="CI47" s="1"/>
+      <c r="CJ47" s="1"/>
+      <c r="CK47" s="1"/>
+      <c r="CL47" s="1"/>
+      <c r="CM47" s="1"/>
+      <c r="CN47" s="1"/>
+      <c r="CO47" s="1"/>
+      <c r="CP47" s="1"/>
+      <c r="CQ47" s="1"/>
+      <c r="CR47" s="1"/>
+      <c r="CS47" s="1"/>
+      <c r="CT47" s="1"/>
+      <c r="CU47" s="1"/>
+      <c r="CV47" s="1"/>
+      <c r="CW47" s="1"/>
+      <c r="CX47" s="1"/>
+      <c r="CY47" s="1"/>
+      <c r="CZ47" s="1"/>
+      <c r="DA47" s="1"/>
+      <c r="DB47" s="1"/>
+      <c r="DC47" s="1"/>
+      <c r="DD47" s="1"/>
+      <c r="DE47" s="1"/>
+      <c r="DF47" s="1"/>
+      <c r="DG47" s="1"/>
+      <c r="DH47" s="1"/>
+      <c r="DI47" s="1"/>
+      <c r="DJ47" s="1"/>
+      <c r="DK47" s="1"/>
+      <c r="DL47" s="1"/>
+      <c r="DM47" s="1"/>
+      <c r="DN47" s="1"/>
+      <c r="DO47" s="1"/>
+      <c r="DP47" s="1"/>
+      <c r="DQ47" s="1"/>
+      <c r="DR47" s="1"/>
+      <c r="DS47" s="1"/>
+      <c r="DT47" s="1"/>
+      <c r="DU47" s="1"/>
+      <c r="DV47" s="1"/>
+      <c r="DW47" s="1"/>
+      <c r="DX47" s="1"/>
+      <c r="DY47" s="1"/>
+      <c r="DZ47" s="1"/>
+      <c r="EA47" s="1"/>
+      <c r="EB47" s="1"/>
+      <c r="EC47" s="1"/>
+      <c r="ED47" s="1"/>
+      <c r="EE47" s="1"/>
+      <c r="EF47" s="1"/>
+      <c r="EG47" s="1"/>
+      <c r="EH47" s="1"/>
+      <c r="EI47" s="1"/>
+      <c r="EJ47" s="1"/>
+      <c r="EK47" s="1"/>
+      <c r="EL47" s="1"/>
+      <c r="EM47" s="1"/>
+      <c r="EN47" s="1"/>
+      <c r="EO47" s="1"/>
+      <c r="EP47" s="1"/>
+      <c r="EQ47" s="1"/>
+      <c r="ER47" s="1"/>
+      <c r="ES47" s="1"/>
+      <c r="ET47" s="1"/>
+      <c r="EU47" s="1"/>
+      <c r="EV47" s="1"/>
+      <c r="EW47" s="1"/>
+      <c r="EX47" s="1"/>
+      <c r="EY47" s="1"/>
+      <c r="EZ47" s="1"/>
+      <c r="FA47" s="1"/>
+      <c r="FB47" s="1"/>
+      <c r="FC47" s="1"/>
+      <c r="FD47" s="1"/>
+      <c r="FE47" s="1"/>
+      <c r="FF47" s="1"/>
+      <c r="FG47" s="1"/>
+      <c r="FH47" s="1"/>
+      <c r="FI47" s="1"/>
+      <c r="FJ47" s="1"/>
+      <c r="FK47" s="1"/>
+      <c r="FL47" s="1"/>
+      <c r="FM47" s="1"/>
+      <c r="FN47" s="1"/>
+      <c r="FO47" s="1"/>
+      <c r="FP47" s="1"/>
+      <c r="FQ47" s="1"/>
+      <c r="FR47" s="1"/>
+      <c r="FS47" s="1"/>
+      <c r="FT47" s="1"/>
+      <c r="FU47" s="1"/>
+      <c r="FV47" s="1"/>
+      <c r="FW47" s="1"/>
+      <c r="FX47" s="1"/>
+      <c r="FY47" s="1"/>
+      <c r="FZ47" s="1"/>
+      <c r="GA47" s="1"/>
+      <c r="GB47" s="1"/>
+      <c r="GC47" s="1"/>
+      <c r="GD47" s="1"/>
+      <c r="GE47" s="1"/>
+      <c r="GF47" s="1"/>
+      <c r="GG47" s="1"/>
+      <c r="GH47" s="1"/>
+      <c r="GI47" s="1"/>
+      <c r="GJ47" s="1"/>
+      <c r="GK47" s="1"/>
+      <c r="GL47" s="1"/>
+      <c r="GM47" s="1"/>
+      <c r="GN47" s="1"/>
+      <c r="GO47" s="1"/>
+      <c r="GP47" s="1"/>
+      <c r="GQ47" s="1"/>
+      <c r="GR47" s="1"/>
+      <c r="GS47" s="1"/>
+      <c r="GT47" s="1"/>
+      <c r="GU47" s="1"/>
+      <c r="GV47" s="1"/>
+      <c r="GW47" s="1"/>
+      <c r="GX47" s="1"/>
+      <c r="GY47" s="1"/>
+      <c r="GZ47" s="1"/>
+      <c r="HA47" s="1"/>
+      <c r="HB47" s="1"/>
+      <c r="HC47" s="1"/>
+      <c r="HD47" s="1"/>
+      <c r="HE47" s="1"/>
+      <c r="HF47" s="1"/>
+      <c r="HG47" s="1"/>
+      <c r="HH47" s="1"/>
+      <c r="HI47" s="1"/>
+      <c r="HJ47" s="1"/>
+      <c r="HK47" s="1"/>
+      <c r="HL47" s="1"/>
+      <c r="HM47" s="1"/>
+      <c r="HN47" s="1"/>
+      <c r="HO47" s="1"/>
+      <c r="HP47" s="1"/>
+      <c r="HQ47" s="1"/>
+      <c r="HR47" s="1"/>
+      <c r="HS47" s="1"/>
+      <c r="HT47" s="1"/>
+      <c r="HU47" s="1"/>
+      <c r="HV47" s="1"/>
+      <c r="HW47" s="1"/>
+      <c r="HX47" s="1"/>
+      <c r="HY47" s="1"/>
+      <c r="HZ47" s="1"/>
+      <c r="IA47" s="1"/>
+      <c r="IB47" s="1"/>
+      <c r="IC47" s="1"/>
+      <c r="ID47" s="1"/>
+      <c r="IE47" s="1"/>
+      <c r="IF47" s="1"/>
+      <c r="IG47" s="1"/>
+      <c r="IH47" s="1"/>
+      <c r="II47" s="1"/>
+      <c r="IJ47" s="1"/>
+      <c r="IK47" s="1"/>
+      <c r="IL47" s="1"/>
+      <c r="IM47" s="1"/>
+      <c r="IN47" s="1"/>
+      <c r="IO47" s="1"/>
+      <c r="IP47" s="1"/>
+      <c r="IQ47" s="1"/>
+      <c r="IR47" s="1"/>
+      <c r="IS47" s="1"/>
+      <c r="IT47" s="1"/>
+      <c r="IU47" s="1"/>
+      <c r="IV47" s="1"/>
+      <c r="IW47" s="1"/>
+      <c r="IX47" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="72">

--- a/020-内部設計/023-検索機能/クラス仕様書_ConnectionManager .xlsx
+++ b/020-内部設計/023-検索機能/クラス仕様書_ConnectionManager .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAEECF3-A221-47D6-AEF8-9CB28C5D40E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700E2737-040E-4CDF-9FFD-75B79BE9CB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="104">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -232,16 +232,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データベースに接続を行うクラスです。</t>
-    <rPh sb="7" eb="9">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ConnectionManager</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -259,14 +249,6 @@
   </si>
   <si>
     <t>USER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドライバー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -291,10 +273,6 @@
   </si>
   <si>
     <t>ユーザーのパスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>puclic static</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -393,13 +371,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>データベースに接続する。</t>
-    <rPh sb="7" eb="9">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>java.lang.class</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -467,24 +438,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データベースに接続するメソッド</t>
-    <rPh sb="7" eb="9">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベースに接続する</t>
-    <rPh sb="7" eb="9">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベースのドライバー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データベースのURL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -509,22 +462,6 @@
   <si>
     <t>se</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.　引数に指定したクラスの読み込み。</t>
-    <rPh sb="3" eb="5">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>2.　データベースに接続。</t>
@@ -554,10 +491,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>2-1.　クラス参照エラーを呼び出し元に投げる。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>1. 　処理欄の項番2でSQLエラーが起きた場合、</t>
     <rPh sb="4" eb="7">
       <t>ショリラン</t>
@@ -565,10 +498,6 @@
     <rPh sb="8" eb="10">
       <t>コウバン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>1-1.　SQLエラーを呼び出し元に投げる。</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -607,6 +536,115 @@
   </si>
   <si>
     <t>getConnection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに接続。</t>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1-1.　SQLエラーを呼び出し元にスロー。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2-1.　クラス参照エラーを呼び出し元にスロー。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>データベースに接続</t>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース接続関連のクラス。</t>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドライバー名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースのドライバー名</t>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>データベースに接続し、接続情報を返却。</t>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>セツゾクジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに接続し、接続情報を返却。</t>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>セツゾクジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1.　引数(フィールドのドライバー名）に指定したクラスの読み込み。</t>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>puclic  static</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1297,23 +1335,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1327,6 +1350,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -1336,14 +1371,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1354,11 +1410,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1369,66 +1452,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1437,6 +1460,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1447,11 +1482,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1765,7 +1803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IY25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
@@ -1775,85 +1813,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="91" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="91" t="s">
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90"/>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="91" t="s">
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
+      <c r="AM1" s="106"/>
+      <c r="AN1" s="106"/>
+      <c r="AO1" s="106"/>
+      <c r="AP1" s="106"/>
+      <c r="AQ1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="91"/>
-      <c r="AS1" s="91"/>
-      <c r="AT1" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
-      <c r="AW1" s="90"/>
-      <c r="AX1" s="90"/>
-      <c r="AY1" s="90"/>
-      <c r="AZ1" s="90"/>
-      <c r="BA1" s="91" t="s">
+      <c r="AR1" s="105"/>
+      <c r="AS1" s="105"/>
+      <c r="AT1" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU1" s="106"/>
+      <c r="AV1" s="106"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="106"/>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="106"/>
+      <c r="BA1" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="91"/>
-      <c r="BC1" s="91"/>
-      <c r="BD1" s="93">
+      <c r="BB1" s="105"/>
+      <c r="BC1" s="105"/>
+      <c r="BD1" s="108">
         <v>45908</v>
       </c>
-      <c r="BE1" s="93"/>
-      <c r="BF1" s="93"/>
-      <c r="BG1" s="93"/>
-      <c r="BH1" s="93"/>
-      <c r="BI1" s="93"/>
+      <c r="BE1" s="108"/>
+      <c r="BF1" s="108"/>
+      <c r="BG1" s="108"/>
+      <c r="BH1" s="108"/>
+      <c r="BI1" s="108"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -2053,80 +2091,80 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="91" t="s">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="91" t="s">
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="90" t="str">
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="106" t="str">
         <f>G6</f>
         <v>ConnectionManager</v>
       </c>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="90"/>
-      <c r="AK2" s="90"/>
-      <c r="AL2" s="90"/>
-      <c r="AM2" s="90"/>
-      <c r="AN2" s="90"/>
-      <c r="AO2" s="90"/>
-      <c r="AP2" s="90"/>
-      <c r="AQ2" s="91" t="s">
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="106"/>
+      <c r="AH2" s="106"/>
+      <c r="AI2" s="106"/>
+      <c r="AJ2" s="106"/>
+      <c r="AK2" s="106"/>
+      <c r="AL2" s="106"/>
+      <c r="AM2" s="106"/>
+      <c r="AN2" s="106"/>
+      <c r="AO2" s="106"/>
+      <c r="AP2" s="106"/>
+      <c r="AQ2" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="91"/>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="90"/>
-      <c r="AU2" s="90"/>
-      <c r="AV2" s="90"/>
-      <c r="AW2" s="90"/>
-      <c r="AX2" s="90"/>
-      <c r="AY2" s="90"/>
-      <c r="AZ2" s="90"/>
-      <c r="BA2" s="91" t="s">
+      <c r="AR2" s="105"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="106"/>
+      <c r="AU2" s="106"/>
+      <c r="AV2" s="106"/>
+      <c r="AW2" s="106"/>
+      <c r="AX2" s="106"/>
+      <c r="AY2" s="106"/>
+      <c r="AZ2" s="106"/>
+      <c r="BA2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="91"/>
-      <c r="BC2" s="91"/>
-      <c r="BD2" s="93">
-        <v>45911</v>
-      </c>
-      <c r="BE2" s="93"/>
-      <c r="BF2" s="93"/>
-      <c r="BG2" s="93"/>
-      <c r="BH2" s="93"/>
-      <c r="BI2" s="93"/>
+      <c r="BB2" s="105"/>
+      <c r="BC2" s="105"/>
+      <c r="BD2" s="108">
+        <v>45929</v>
+      </c>
+      <c r="BE2" s="108"/>
+      <c r="BF2" s="108"/>
+      <c r="BG2" s="108"/>
+      <c r="BH2" s="108"/>
+      <c r="BI2" s="108"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -2326,410 +2364,410 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="88"/>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="88"/>
-      <c r="BF4" s="88"/>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="89"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="94"/>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="94"/>
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="94"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="95"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="88"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="88"/>
-      <c r="AI5" s="88"/>
-      <c r="AJ5" s="88"/>
-      <c r="AK5" s="88"/>
-      <c r="AL5" s="88"/>
-      <c r="AM5" s="88"/>
-      <c r="AN5" s="88"/>
-      <c r="AO5" s="88"/>
-      <c r="AP5" s="88"/>
-      <c r="AQ5" s="88"/>
-      <c r="AR5" s="88"/>
-      <c r="AS5" s="88"/>
-      <c r="AT5" s="88"/>
-      <c r="AU5" s="88"/>
-      <c r="AV5" s="88"/>
-      <c r="AW5" s="88"/>
-      <c r="AX5" s="88"/>
-      <c r="AY5" s="88"/>
-      <c r="AZ5" s="88"/>
-      <c r="BA5" s="88"/>
-      <c r="BB5" s="88"/>
-      <c r="BC5" s="88"/>
-      <c r="BD5" s="88"/>
-      <c r="BE5" s="88"/>
-      <c r="BF5" s="88"/>
-      <c r="BG5" s="88"/>
-      <c r="BH5" s="88"/>
-      <c r="BI5" s="89"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="94"/>
+      <c r="AL5" s="94"/>
+      <c r="AM5" s="94"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="94"/>
+      <c r="AP5" s="94"/>
+      <c r="AQ5" s="94"/>
+      <c r="AR5" s="94"/>
+      <c r="AS5" s="94"/>
+      <c r="AT5" s="94"/>
+      <c r="AU5" s="94"/>
+      <c r="AV5" s="94"/>
+      <c r="AW5" s="94"/>
+      <c r="AX5" s="94"/>
+      <c r="AY5" s="94"/>
+      <c r="AZ5" s="94"/>
+      <c r="BA5" s="94"/>
+      <c r="BB5" s="94"/>
+      <c r="BC5" s="94"/>
+      <c r="BD5" s="94"/>
+      <c r="BE5" s="94"/>
+      <c r="BF5" s="94"/>
+      <c r="BG5" s="94"/>
+      <c r="BH5" s="94"/>
+      <c r="BI5" s="95"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="88"/>
-      <c r="AE6" s="88"/>
-      <c r="AF6" s="88"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="88"/>
-      <c r="AI6" s="88"/>
-      <c r="AJ6" s="88"/>
-      <c r="AK6" s="88"/>
-      <c r="AL6" s="88"/>
-      <c r="AM6" s="88"/>
-      <c r="AN6" s="88"/>
-      <c r="AO6" s="88"/>
-      <c r="AP6" s="88"/>
-      <c r="AQ6" s="88"/>
-      <c r="AR6" s="88"/>
-      <c r="AS6" s="88"/>
-      <c r="AT6" s="88"/>
-      <c r="AU6" s="88"/>
-      <c r="AV6" s="88"/>
-      <c r="AW6" s="88"/>
-      <c r="AX6" s="88"/>
-      <c r="AY6" s="88"/>
-      <c r="AZ6" s="88"/>
-      <c r="BA6" s="88"/>
-      <c r="BB6" s="88"/>
-      <c r="BC6" s="88"/>
-      <c r="BD6" s="88"/>
-      <c r="BE6" s="88"/>
-      <c r="BF6" s="88"/>
-      <c r="BG6" s="88"/>
-      <c r="BH6" s="88"/>
-      <c r="BI6" s="89"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="94"/>
+      <c r="AI6" s="94"/>
+      <c r="AJ6" s="94"/>
+      <c r="AK6" s="94"/>
+      <c r="AL6" s="94"/>
+      <c r="AM6" s="94"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="94"/>
+      <c r="AP6" s="94"/>
+      <c r="AQ6" s="94"/>
+      <c r="AR6" s="94"/>
+      <c r="AS6" s="94"/>
+      <c r="AT6" s="94"/>
+      <c r="AU6" s="94"/>
+      <c r="AV6" s="94"/>
+      <c r="AW6" s="94"/>
+      <c r="AX6" s="94"/>
+      <c r="AY6" s="94"/>
+      <c r="AZ6" s="94"/>
+      <c r="BA6" s="94"/>
+      <c r="BB6" s="94"/>
+      <c r="BC6" s="94"/>
+      <c r="BD6" s="94"/>
+      <c r="BE6" s="94"/>
+      <c r="BF6" s="94"/>
+      <c r="BG6" s="94"/>
+      <c r="BH6" s="94"/>
+      <c r="BI6" s="95"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="88"/>
-      <c r="AB7" s="88"/>
-      <c r="AC7" s="88"/>
-      <c r="AD7" s="88"/>
-      <c r="AE7" s="88"/>
-      <c r="AF7" s="88"/>
-      <c r="AG7" s="88"/>
-      <c r="AH7" s="88"/>
-      <c r="AI7" s="88"/>
-      <c r="AJ7" s="88"/>
-      <c r="AK7" s="88"/>
-      <c r="AL7" s="88"/>
-      <c r="AM7" s="88"/>
-      <c r="AN7" s="88"/>
-      <c r="AO7" s="88"/>
-      <c r="AP7" s="88"/>
-      <c r="AQ7" s="88"/>
-      <c r="AR7" s="88"/>
-      <c r="AS7" s="88"/>
-      <c r="AT7" s="88"/>
-      <c r="AU7" s="88"/>
-      <c r="AV7" s="88"/>
-      <c r="AW7" s="88"/>
-      <c r="AX7" s="88"/>
-      <c r="AY7" s="88"/>
-      <c r="AZ7" s="88"/>
-      <c r="BA7" s="88"/>
-      <c r="BB7" s="88"/>
-      <c r="BC7" s="88"/>
-      <c r="BD7" s="88"/>
-      <c r="BE7" s="88"/>
-      <c r="BF7" s="88"/>
-      <c r="BG7" s="88"/>
-      <c r="BH7" s="88"/>
-      <c r="BI7" s="89"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="94"/>
+      <c r="AJ7" s="94"/>
+      <c r="AK7" s="94"/>
+      <c r="AL7" s="94"/>
+      <c r="AM7" s="94"/>
+      <c r="AN7" s="94"/>
+      <c r="AO7" s="94"/>
+      <c r="AP7" s="94"/>
+      <c r="AQ7" s="94"/>
+      <c r="AR7" s="94"/>
+      <c r="AS7" s="94"/>
+      <c r="AT7" s="94"/>
+      <c r="AU7" s="94"/>
+      <c r="AV7" s="94"/>
+      <c r="AW7" s="94"/>
+      <c r="AX7" s="94"/>
+      <c r="AY7" s="94"/>
+      <c r="AZ7" s="94"/>
+      <c r="BA7" s="94"/>
+      <c r="BB7" s="94"/>
+      <c r="BC7" s="94"/>
+      <c r="BD7" s="94"/>
+      <c r="BE7" s="94"/>
+      <c r="BF7" s="94"/>
+      <c r="BG7" s="94"/>
+      <c r="BH7" s="94"/>
+      <c r="BI7" s="95"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="88"/>
-      <c r="AJ8" s="88"/>
-      <c r="AK8" s="88"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="88"/>
-      <c r="AN8" s="88"/>
-      <c r="AO8" s="88"/>
-      <c r="AP8" s="88"/>
-      <c r="AQ8" s="88"/>
-      <c r="AR8" s="88"/>
-      <c r="AS8" s="88"/>
-      <c r="AT8" s="88"/>
-      <c r="AU8" s="88"/>
-      <c r="AV8" s="88"/>
-      <c r="AW8" s="88"/>
-      <c r="AX8" s="88"/>
-      <c r="AY8" s="88"/>
-      <c r="AZ8" s="88"/>
-      <c r="BA8" s="88"/>
-      <c r="BB8" s="88"/>
-      <c r="BC8" s="88"/>
-      <c r="BD8" s="88"/>
-      <c r="BE8" s="88"/>
-      <c r="BF8" s="88"/>
-      <c r="BG8" s="88"/>
-      <c r="BH8" s="88"/>
-      <c r="BI8" s="89"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="94"/>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="94"/>
+      <c r="AI8" s="94"/>
+      <c r="AJ8" s="94"/>
+      <c r="AK8" s="94"/>
+      <c r="AL8" s="94"/>
+      <c r="AM8" s="94"/>
+      <c r="AN8" s="94"/>
+      <c r="AO8" s="94"/>
+      <c r="AP8" s="94"/>
+      <c r="AQ8" s="94"/>
+      <c r="AR8" s="94"/>
+      <c r="AS8" s="94"/>
+      <c r="AT8" s="94"/>
+      <c r="AU8" s="94"/>
+      <c r="AV8" s="94"/>
+      <c r="AW8" s="94"/>
+      <c r="AX8" s="94"/>
+      <c r="AY8" s="94"/>
+      <c r="AZ8" s="94"/>
+      <c r="BA8" s="94"/>
+      <c r="BB8" s="94"/>
+      <c r="BC8" s="94"/>
+      <c r="BD8" s="94"/>
+      <c r="BE8" s="94"/>
+      <c r="BF8" s="94"/>
+      <c r="BG8" s="94"/>
+      <c r="BH8" s="94"/>
+      <c r="BI8" s="95"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="87" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="88"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="89"/>
-      <c r="AF9" s="86" t="s">
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="95"/>
+      <c r="AF9" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="86"/>
-      <c r="AK9" s="86"/>
-      <c r="AL9" s="104" t="s">
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="91"/>
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="91"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="AM9" s="104"/>
-      <c r="AN9" s="104"/>
-      <c r="AO9" s="104"/>
-      <c r="AP9" s="104"/>
-      <c r="AQ9" s="104"/>
-      <c r="AR9" s="104"/>
-      <c r="AS9" s="104"/>
-      <c r="AT9" s="104"/>
-      <c r="AU9" s="104"/>
-      <c r="AV9" s="104"/>
-      <c r="AW9" s="104"/>
-      <c r="AX9" s="104"/>
-      <c r="AY9" s="104"/>
-      <c r="AZ9" s="104"/>
-      <c r="BA9" s="104"/>
-      <c r="BB9" s="104"/>
-      <c r="BC9" s="104"/>
-      <c r="BD9" s="104"/>
-      <c r="BE9" s="104"/>
-      <c r="BF9" s="104"/>
-      <c r="BG9" s="104"/>
-      <c r="BH9" s="104"/>
-      <c r="BI9" s="104"/>
+      <c r="AM9" s="92"/>
+      <c r="AN9" s="92"/>
+      <c r="AO9" s="92"/>
+      <c r="AP9" s="92"/>
+      <c r="AQ9" s="92"/>
+      <c r="AR9" s="92"/>
+      <c r="AS9" s="92"/>
+      <c r="AT9" s="92"/>
+      <c r="AU9" s="92"/>
+      <c r="AV9" s="92"/>
+      <c r="AW9" s="92"/>
+      <c r="AX9" s="92"/>
+      <c r="AY9" s="92"/>
+      <c r="AZ9" s="92"/>
+      <c r="BA9" s="92"/>
+      <c r="BB9" s="92"/>
+      <c r="BC9" s="92"/>
+      <c r="BD9" s="92"/>
+      <c r="BE9" s="92"/>
+      <c r="BF9" s="92"/>
+      <c r="BG9" s="92"/>
+      <c r="BH9" s="92"/>
+      <c r="BI9" s="92"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -2741,159 +2779,161 @@
       <c r="B12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="95" t="s">
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="95" t="s">
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="99" t="s">
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="99"/>
-      <c r="AH12" s="99"/>
-      <c r="AI12" s="99" t="s">
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="AJ12" s="99"/>
-      <c r="AK12" s="99"/>
-      <c r="AL12" s="99"/>
-      <c r="AM12" s="99"/>
-      <c r="AN12" s="99"/>
-      <c r="AO12" s="99"/>
-      <c r="AP12" s="99"/>
-      <c r="AQ12" s="99"/>
-      <c r="AR12" s="99"/>
-      <c r="AS12" s="99"/>
-      <c r="AT12" s="99"/>
-      <c r="AU12" s="99"/>
-      <c r="AV12" s="99"/>
-      <c r="AW12" s="99"/>
-      <c r="AX12" s="99"/>
-      <c r="AY12" s="99"/>
-      <c r="AZ12" s="99"/>
+      <c r="AJ12" s="71"/>
+      <c r="AK12" s="71"/>
+      <c r="AL12" s="71"/>
+      <c r="AM12" s="71"/>
+      <c r="AN12" s="71"/>
+      <c r="AO12" s="71"/>
+      <c r="AP12" s="71"/>
+      <c r="AQ12" s="71"/>
+      <c r="AR12" s="71"/>
+      <c r="AS12" s="71"/>
+      <c r="AT12" s="71"/>
+      <c r="AU12" s="71"/>
+      <c r="AV12" s="71"/>
+      <c r="AW12" s="71"/>
+      <c r="AX12" s="71"/>
+      <c r="AY12" s="71"/>
+      <c r="AZ12" s="71"/>
       <c r="BA12" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="BB12" s="95"/>
-      <c r="BC12" s="95"/>
-      <c r="BD12" s="95"/>
-      <c r="BE12" s="95"/>
-      <c r="BF12" s="95"/>
-      <c r="BG12" s="95"/>
-      <c r="BH12" s="96"/>
-      <c r="DI12" s="95" t="s">
+      <c r="BB12" s="76"/>
+      <c r="BC12" s="76"/>
+      <c r="BD12" s="76"/>
+      <c r="BE12" s="76"/>
+      <c r="BF12" s="76"/>
+      <c r="BG12" s="76"/>
+      <c r="BH12" s="77"/>
+      <c r="DI12" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="DJ12" s="95"/>
-      <c r="DK12" s="95"/>
-      <c r="DL12" s="95"/>
-      <c r="DM12" s="95"/>
-      <c r="DN12" s="95"/>
-      <c r="DO12" s="95"/>
-      <c r="DP12" s="96"/>
+      <c r="DJ12" s="76"/>
+      <c r="DK12" s="76"/>
+      <c r="DL12" s="76"/>
+      <c r="DM12" s="76"/>
+      <c r="DN12" s="76"/>
+      <c r="DO12" s="76"/>
+      <c r="DP12" s="77"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="29">
         <v>1</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="71" t="s">
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="72"/>
-      <c r="AA13" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="74"/>
-      <c r="AF13" s="74"/>
-      <c r="AG13" s="74"/>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ13" s="76"/>
-      <c r="AK13" s="76"/>
-      <c r="AL13" s="76"/>
-      <c r="AM13" s="76"/>
-      <c r="AN13" s="76"/>
-      <c r="AO13" s="76"/>
-      <c r="AP13" s="76"/>
-      <c r="AQ13" s="76"/>
-      <c r="AR13" s="76"/>
-      <c r="AS13" s="76"/>
-      <c r="AT13" s="76"/>
-      <c r="AU13" s="76"/>
-      <c r="AV13" s="76"/>
-      <c r="AW13" s="76"/>
-      <c r="AX13" s="76"/>
-      <c r="AY13" s="76"/>
-      <c r="AZ13" s="76"/>
-      <c r="BA13" s="98"/>
-      <c r="BB13" s="84"/>
-      <c r="BC13" s="84"/>
-      <c r="BD13" s="84"/>
-      <c r="BE13" s="84"/>
-      <c r="BF13" s="84"/>
-      <c r="BG13" s="84"/>
-      <c r="BH13" s="85"/>
+      <c r="AB13" s="100"/>
+      <c r="AC13" s="100"/>
+      <c r="AD13" s="100"/>
+      <c r="AE13" s="100"/>
+      <c r="AF13" s="100"/>
+      <c r="AG13" s="100"/>
+      <c r="AH13" s="101"/>
+      <c r="AI13" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ13" s="98"/>
+      <c r="AK13" s="98"/>
+      <c r="AL13" s="98"/>
+      <c r="AM13" s="98"/>
+      <c r="AN13" s="98"/>
+      <c r="AO13" s="98"/>
+      <c r="AP13" s="98"/>
+      <c r="AQ13" s="98"/>
+      <c r="AR13" s="98"/>
+      <c r="AS13" s="98"/>
+      <c r="AT13" s="98"/>
+      <c r="AU13" s="98"/>
+      <c r="AV13" s="98"/>
+      <c r="AW13" s="98"/>
+      <c r="AX13" s="98"/>
+      <c r="AY13" s="98"/>
+      <c r="AZ13" s="98"/>
+      <c r="BA13" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB13" s="78"/>
+      <c r="BC13" s="78"/>
+      <c r="BD13" s="78"/>
+      <c r="BE13" s="78"/>
+      <c r="BF13" s="78"/>
+      <c r="BG13" s="78"/>
+      <c r="BH13" s="79"/>
       <c r="DI13" s="52"/>
       <c r="DJ13" s="52"/>
       <c r="DK13" s="52"/>
@@ -2907,74 +2947,76 @@
       <c r="B14" s="29">
         <v>2</v>
       </c>
-      <c r="C14" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="74"/>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ14" s="76"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="76"/>
-      <c r="AQ14" s="76"/>
-      <c r="AR14" s="76"/>
-      <c r="AS14" s="76"/>
-      <c r="AT14" s="76"/>
-      <c r="AU14" s="76"/>
-      <c r="AV14" s="76"/>
-      <c r="AW14" s="76"/>
-      <c r="AX14" s="76"/>
-      <c r="AY14" s="76"/>
-      <c r="AZ14" s="76"/>
-      <c r="BA14" s="98"/>
-      <c r="BB14" s="84"/>
-      <c r="BC14" s="84"/>
-      <c r="BD14" s="84"/>
-      <c r="BE14" s="84"/>
-      <c r="BF14" s="84"/>
-      <c r="BG14" s="84"/>
-      <c r="BH14" s="85"/>
+      <c r="C14" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="100"/>
+      <c r="AE14" s="100"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="100"/>
+      <c r="AH14" s="101"/>
+      <c r="AI14" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ14" s="98"/>
+      <c r="AK14" s="98"/>
+      <c r="AL14" s="98"/>
+      <c r="AM14" s="98"/>
+      <c r="AN14" s="98"/>
+      <c r="AO14" s="98"/>
+      <c r="AP14" s="98"/>
+      <c r="AQ14" s="98"/>
+      <c r="AR14" s="98"/>
+      <c r="AS14" s="98"/>
+      <c r="AT14" s="98"/>
+      <c r="AU14" s="98"/>
+      <c r="AV14" s="98"/>
+      <c r="AW14" s="98"/>
+      <c r="AX14" s="98"/>
+      <c r="AY14" s="98"/>
+      <c r="AZ14" s="98"/>
+      <c r="BA14" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB14" s="78"/>
+      <c r="BC14" s="78"/>
+      <c r="BD14" s="78"/>
+      <c r="BE14" s="78"/>
+      <c r="BF14" s="78"/>
+      <c r="BG14" s="78"/>
+      <c r="BH14" s="79"/>
       <c r="DI14" s="52"/>
       <c r="DJ14" s="52"/>
       <c r="DK14" s="52"/>
@@ -2988,74 +3030,76 @@
       <c r="B15" s="29">
         <v>4</v>
       </c>
-      <c r="C15" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="74"/>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="74"/>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ15" s="76"/>
-      <c r="AK15" s="76"/>
-      <c r="AL15" s="76"/>
-      <c r="AM15" s="76"/>
-      <c r="AN15" s="76"/>
-      <c r="AO15" s="76"/>
-      <c r="AP15" s="76"/>
-      <c r="AQ15" s="76"/>
-      <c r="AR15" s="76"/>
-      <c r="AS15" s="76"/>
-      <c r="AT15" s="76"/>
-      <c r="AU15" s="76"/>
-      <c r="AV15" s="76"/>
-      <c r="AW15" s="76"/>
-      <c r="AX15" s="76"/>
-      <c r="AY15" s="76"/>
-      <c r="AZ15" s="76"/>
-      <c r="BA15" s="98"/>
-      <c r="BB15" s="84"/>
-      <c r="BC15" s="84"/>
-      <c r="BD15" s="84"/>
-      <c r="BE15" s="84"/>
-      <c r="BF15" s="84"/>
-      <c r="BG15" s="84"/>
-      <c r="BH15" s="85"/>
+      <c r="C15" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB15" s="100"/>
+      <c r="AC15" s="100"/>
+      <c r="AD15" s="100"/>
+      <c r="AE15" s="100"/>
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="100"/>
+      <c r="AH15" s="101"/>
+      <c r="AI15" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ15" s="98"/>
+      <c r="AK15" s="98"/>
+      <c r="AL15" s="98"/>
+      <c r="AM15" s="98"/>
+      <c r="AN15" s="98"/>
+      <c r="AO15" s="98"/>
+      <c r="AP15" s="98"/>
+      <c r="AQ15" s="98"/>
+      <c r="AR15" s="98"/>
+      <c r="AS15" s="98"/>
+      <c r="AT15" s="98"/>
+      <c r="AU15" s="98"/>
+      <c r="AV15" s="98"/>
+      <c r="AW15" s="98"/>
+      <c r="AX15" s="98"/>
+      <c r="AY15" s="98"/>
+      <c r="AZ15" s="98"/>
+      <c r="BA15" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB15" s="78"/>
+      <c r="BC15" s="78"/>
+      <c r="BD15" s="78"/>
+      <c r="BE15" s="78"/>
+      <c r="BF15" s="78"/>
+      <c r="BG15" s="78"/>
+      <c r="BH15" s="79"/>
       <c r="DI15" s="52"/>
       <c r="DJ15" s="52"/>
       <c r="DK15" s="52"/>
@@ -3069,82 +3113,84 @@
       <c r="B16" s="29">
         <v>3</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="71" t="s">
+      <c r="T16" s="103"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="103"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="103"/>
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB16" s="100"/>
+      <c r="AC16" s="100"/>
+      <c r="AD16" s="100"/>
+      <c r="AE16" s="100"/>
+      <c r="AF16" s="100"/>
+      <c r="AG16" s="100"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="T16" s="101"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="101"/>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="102"/>
-      <c r="AA16" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="74"/>
-      <c r="AH16" s="75"/>
-      <c r="AI16" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ16" s="76"/>
-      <c r="AK16" s="76"/>
-      <c r="AL16" s="76"/>
-      <c r="AM16" s="76"/>
-      <c r="AN16" s="76"/>
-      <c r="AO16" s="76"/>
-      <c r="AP16" s="76"/>
-      <c r="AQ16" s="76"/>
-      <c r="AR16" s="76"/>
-      <c r="AS16" s="76"/>
-      <c r="AT16" s="76"/>
-      <c r="AU16" s="76"/>
-      <c r="AV16" s="76"/>
-      <c r="AW16" s="76"/>
-      <c r="AX16" s="76"/>
-      <c r="AY16" s="76"/>
-      <c r="AZ16" s="76"/>
-      <c r="BA16" s="98"/>
-      <c r="BB16" s="84"/>
-      <c r="BC16" s="84"/>
-      <c r="BD16" s="84"/>
-      <c r="BE16" s="84"/>
-      <c r="BF16" s="84"/>
-      <c r="BG16" s="84"/>
-      <c r="BH16" s="85"/>
-      <c r="DI16" s="84"/>
-      <c r="DJ16" s="84"/>
-      <c r="DK16" s="84"/>
-      <c r="DL16" s="84"/>
-      <c r="DM16" s="84"/>
-      <c r="DN16" s="84"/>
-      <c r="DO16" s="84"/>
-      <c r="DP16" s="85"/>
+      <c r="AJ16" s="98"/>
+      <c r="AK16" s="98"/>
+      <c r="AL16" s="98"/>
+      <c r="AM16" s="98"/>
+      <c r="AN16" s="98"/>
+      <c r="AO16" s="98"/>
+      <c r="AP16" s="98"/>
+      <c r="AQ16" s="98"/>
+      <c r="AR16" s="98"/>
+      <c r="AS16" s="98"/>
+      <c r="AT16" s="98"/>
+      <c r="AU16" s="98"/>
+      <c r="AV16" s="98"/>
+      <c r="AW16" s="98"/>
+      <c r="AX16" s="98"/>
+      <c r="AY16" s="98"/>
+      <c r="AZ16" s="98"/>
+      <c r="BA16" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB16" s="78"/>
+      <c r="BC16" s="78"/>
+      <c r="BD16" s="78"/>
+      <c r="BE16" s="78"/>
+      <c r="BF16" s="78"/>
+      <c r="BG16" s="78"/>
+      <c r="BH16" s="79"/>
+      <c r="DI16" s="78"/>
+      <c r="DJ16" s="78"/>
+      <c r="DK16" s="78"/>
+      <c r="DL16" s="78"/>
+      <c r="DM16" s="78"/>
+      <c r="DN16" s="78"/>
+      <c r="DO16" s="78"/>
+      <c r="DP16" s="79"/>
     </row>
     <row r="18" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
@@ -3155,153 +3201,155 @@
       <c r="B19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="95" t="s">
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="95" t="s">
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="99" t="s">
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="76"/>
+      <c r="Y19" s="76"/>
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="99"/>
-      <c r="AD19" s="99" t="s">
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="103" t="s">
+      <c r="AE19" s="71"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="AH19" s="103"/>
-      <c r="AI19" s="103"/>
-      <c r="AJ19" s="103"/>
-      <c r="AK19" s="103"/>
-      <c r="AL19" s="103"/>
-      <c r="AM19" s="103"/>
-      <c r="AN19" s="103"/>
-      <c r="AO19" s="103"/>
-      <c r="AP19" s="103"/>
-      <c r="AQ19" s="103"/>
-      <c r="AR19" s="103"/>
-      <c r="AS19" s="103"/>
-      <c r="AT19" s="103"/>
-      <c r="AU19" s="103"/>
-      <c r="AV19" s="103"/>
-      <c r="AW19" s="103"/>
-      <c r="AX19" s="103"/>
-      <c r="AY19" s="103"/>
+      <c r="AH19" s="96"/>
+      <c r="AI19" s="96"/>
+      <c r="AJ19" s="96"/>
+      <c r="AK19" s="96"/>
+      <c r="AL19" s="96"/>
+      <c r="AM19" s="96"/>
+      <c r="AN19" s="96"/>
+      <c r="AO19" s="96"/>
+      <c r="AP19" s="96"/>
+      <c r="AQ19" s="96"/>
+      <c r="AR19" s="96"/>
+      <c r="AS19" s="96"/>
+      <c r="AT19" s="96"/>
+      <c r="AU19" s="96"/>
+      <c r="AV19" s="96"/>
+      <c r="AW19" s="96"/>
+      <c r="AX19" s="96"/>
+      <c r="AY19" s="96"/>
       <c r="AZ19" s="97"/>
-      <c r="BA19" s="95" t="s">
+      <c r="BA19" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="BB19" s="95"/>
-      <c r="BC19" s="95"/>
-      <c r="BD19" s="95"/>
-      <c r="BE19" s="95"/>
-      <c r="BF19" s="95"/>
-      <c r="BG19" s="95"/>
-      <c r="BH19" s="96"/>
+      <c r="BB19" s="76"/>
+      <c r="BC19" s="76"/>
+      <c r="BD19" s="76"/>
+      <c r="BE19" s="76"/>
+      <c r="BF19" s="76"/>
+      <c r="BG19" s="76"/>
+      <c r="BH19" s="77"/>
     </row>
     <row r="20" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="29">
         <v>1</v>
       </c>
-      <c r="C20" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="71" t="s">
+      <c r="C20" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="T20" s="86"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB20" s="90"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB20" s="106"/>
-      <c r="AC20" s="106"/>
-      <c r="AD20" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE20" s="106"/>
-      <c r="AF20" s="106"/>
-      <c r="AG20" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH20" s="105"/>
-      <c r="AI20" s="105"/>
-      <c r="AJ20" s="105"/>
-      <c r="AK20" s="105"/>
-      <c r="AL20" s="105"/>
-      <c r="AM20" s="105"/>
-      <c r="AN20" s="105"/>
-      <c r="AO20" s="105"/>
-      <c r="AP20" s="105"/>
-      <c r="AQ20" s="105"/>
-      <c r="AR20" s="105"/>
-      <c r="AS20" s="105"/>
-      <c r="AT20" s="105"/>
-      <c r="AU20" s="105"/>
-      <c r="AV20" s="105"/>
-      <c r="AW20" s="105"/>
-      <c r="AX20" s="105"/>
-      <c r="AY20" s="105"/>
-      <c r="AZ20" s="98"/>
-      <c r="BA20" s="84"/>
-      <c r="BB20" s="84"/>
-      <c r="BC20" s="84"/>
-      <c r="BD20" s="84"/>
-      <c r="BE20" s="84"/>
-      <c r="BF20" s="84"/>
-      <c r="BG20" s="84"/>
-      <c r="BH20" s="85"/>
+      <c r="AH20" s="88"/>
+      <c r="AI20" s="88"/>
+      <c r="AJ20" s="88"/>
+      <c r="AK20" s="88"/>
+      <c r="AL20" s="88"/>
+      <c r="AM20" s="88"/>
+      <c r="AN20" s="88"/>
+      <c r="AO20" s="88"/>
+      <c r="AP20" s="88"/>
+      <c r="AQ20" s="88"/>
+      <c r="AR20" s="88"/>
+      <c r="AS20" s="88"/>
+      <c r="AT20" s="88"/>
+      <c r="AU20" s="88"/>
+      <c r="AV20" s="88"/>
+      <c r="AW20" s="88"/>
+      <c r="AX20" s="88"/>
+      <c r="AY20" s="88"/>
+      <c r="AZ20" s="89"/>
+      <c r="BA20" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB20" s="78"/>
+      <c r="BC20" s="78"/>
+      <c r="BD20" s="78"/>
+      <c r="BE20" s="78"/>
+      <c r="BF20" s="78"/>
+      <c r="BG20" s="78"/>
+      <c r="BH20" s="79"/>
     </row>
     <row r="22" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34"/>
@@ -3571,74 +3619,74 @@
       <c r="B23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99" t="s">
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99" t="s">
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="T23" s="99"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="99"/>
-      <c r="X23" s="99"/>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="107" t="s">
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="AB23" s="108"/>
-      <c r="AC23" s="108"/>
-      <c r="AD23" s="108"/>
-      <c r="AE23" s="108"/>
-      <c r="AF23" s="108"/>
-      <c r="AG23" s="108"/>
-      <c r="AH23" s="108"/>
-      <c r="AI23" s="108"/>
-      <c r="AJ23" s="108"/>
-      <c r="AK23" s="108"/>
-      <c r="AL23" s="108"/>
-      <c r="AM23" s="108"/>
-      <c r="AN23" s="108"/>
-      <c r="AO23" s="108"/>
-      <c r="AP23" s="108"/>
-      <c r="AQ23" s="108"/>
-      <c r="AR23" s="108"/>
-      <c r="AS23" s="108"/>
-      <c r="AT23" s="108"/>
-      <c r="AU23" s="108"/>
-      <c r="AV23" s="108"/>
-      <c r="AW23" s="108"/>
-      <c r="AX23" s="108"/>
-      <c r="AY23" s="108"/>
-      <c r="AZ23" s="109"/>
-      <c r="BA23" s="95" t="s">
+      <c r="AB23" s="84"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="84"/>
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="84"/>
+      <c r="AG23" s="84"/>
+      <c r="AH23" s="84"/>
+      <c r="AI23" s="84"/>
+      <c r="AJ23" s="84"/>
+      <c r="AK23" s="84"/>
+      <c r="AL23" s="84"/>
+      <c r="AM23" s="84"/>
+      <c r="AN23" s="84"/>
+      <c r="AO23" s="84"/>
+      <c r="AP23" s="84"/>
+      <c r="AQ23" s="84"/>
+      <c r="AR23" s="84"/>
+      <c r="AS23" s="84"/>
+      <c r="AT23" s="84"/>
+      <c r="AU23" s="84"/>
+      <c r="AV23" s="84"/>
+      <c r="AW23" s="84"/>
+      <c r="AX23" s="84"/>
+      <c r="AY23" s="84"/>
+      <c r="AZ23" s="85"/>
+      <c r="BA23" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="BB23" s="95"/>
-      <c r="BC23" s="95"/>
-      <c r="BD23" s="95"/>
-      <c r="BE23" s="95"/>
-      <c r="BF23" s="95"/>
-      <c r="BG23" s="95"/>
-      <c r="BH23" s="96"/>
+      <c r="BB23" s="76"/>
+      <c r="BC23" s="76"/>
+      <c r="BD23" s="76"/>
+      <c r="BE23" s="76"/>
+      <c r="BF23" s="76"/>
+      <c r="BG23" s="76"/>
+      <c r="BH23" s="77"/>
       <c r="BI23" s="35"/>
       <c r="BJ23" s="3"/>
       <c r="BK23" s="1"/>
@@ -3844,72 +3892,74 @@
       <c r="B24" s="29">
         <v>1</v>
       </c>
-      <c r="C24" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="T24" s="80"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="80"/>
-      <c r="X24" s="80"/>
-      <c r="Y24" s="80"/>
-      <c r="Z24" s="80"/>
-      <c r="AA24" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB24" s="82"/>
-      <c r="AC24" s="82"/>
-      <c r="AD24" s="82"/>
-      <c r="AE24" s="82"/>
-      <c r="AF24" s="82"/>
-      <c r="AG24" s="82"/>
-      <c r="AH24" s="82"/>
-      <c r="AI24" s="82"/>
-      <c r="AJ24" s="82"/>
-      <c r="AK24" s="82"/>
-      <c r="AL24" s="82"/>
-      <c r="AM24" s="82"/>
-      <c r="AN24" s="82"/>
-      <c r="AO24" s="82"/>
-      <c r="AP24" s="82"/>
-      <c r="AQ24" s="82"/>
-      <c r="AR24" s="82"/>
-      <c r="AS24" s="82"/>
-      <c r="AT24" s="82"/>
-      <c r="AU24" s="82"/>
-      <c r="AV24" s="82"/>
-      <c r="AW24" s="82"/>
-      <c r="AX24" s="82"/>
-      <c r="AY24" s="82"/>
-      <c r="AZ24" s="83"/>
-      <c r="BA24" s="84"/>
-      <c r="BB24" s="84"/>
-      <c r="BC24" s="84"/>
-      <c r="BD24" s="84"/>
-      <c r="BE24" s="84"/>
-      <c r="BF24" s="84"/>
-      <c r="BG24" s="84"/>
-      <c r="BH24" s="85"/>
+      <c r="C24" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="81"/>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="81"/>
+      <c r="AH24" s="81"/>
+      <c r="AI24" s="81"/>
+      <c r="AJ24" s="81"/>
+      <c r="AK24" s="81"/>
+      <c r="AL24" s="81"/>
+      <c r="AM24" s="81"/>
+      <c r="AN24" s="81"/>
+      <c r="AO24" s="81"/>
+      <c r="AP24" s="81"/>
+      <c r="AQ24" s="81"/>
+      <c r="AR24" s="81"/>
+      <c r="AS24" s="81"/>
+      <c r="AT24" s="81"/>
+      <c r="AU24" s="81"/>
+      <c r="AV24" s="81"/>
+      <c r="AW24" s="81"/>
+      <c r="AX24" s="81"/>
+      <c r="AY24" s="81"/>
+      <c r="AZ24" s="82"/>
+      <c r="BA24" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB24" s="78"/>
+      <c r="BC24" s="78"/>
+      <c r="BD24" s="78"/>
+      <c r="BE24" s="78"/>
+      <c r="BF24" s="78"/>
+      <c r="BG24" s="78"/>
+      <c r="BH24" s="79"/>
       <c r="BI24" s="35"/>
       <c r="BJ24" s="3"/>
       <c r="BK24" s="1"/>
@@ -4115,72 +4165,74 @@
       <c r="B25" s="29">
         <v>2</v>
       </c>
-      <c r="C25" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="T25" s="80"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="80"/>
-      <c r="Z25" s="80"/>
-      <c r="AA25" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB25" s="82"/>
-      <c r="AC25" s="82"/>
-      <c r="AD25" s="82"/>
-      <c r="AE25" s="82"/>
-      <c r="AF25" s="82"/>
-      <c r="AG25" s="82"/>
-      <c r="AH25" s="82"/>
-      <c r="AI25" s="82"/>
-      <c r="AJ25" s="82"/>
-      <c r="AK25" s="82"/>
-      <c r="AL25" s="82"/>
-      <c r="AM25" s="82"/>
-      <c r="AN25" s="82"/>
-      <c r="AO25" s="82"/>
-      <c r="AP25" s="82"/>
-      <c r="AQ25" s="82"/>
-      <c r="AR25" s="82"/>
-      <c r="AS25" s="82"/>
-      <c r="AT25" s="82"/>
-      <c r="AU25" s="82"/>
-      <c r="AV25" s="82"/>
-      <c r="AW25" s="82"/>
-      <c r="AX25" s="82"/>
-      <c r="AY25" s="82"/>
-      <c r="AZ25" s="83"/>
-      <c r="BA25" s="84"/>
-      <c r="BB25" s="84"/>
-      <c r="BC25" s="84"/>
-      <c r="BD25" s="84"/>
-      <c r="BE25" s="84"/>
-      <c r="BF25" s="84"/>
-      <c r="BG25" s="84"/>
-      <c r="BH25" s="85"/>
+      <c r="C25" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="T25" s="75"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB25" s="81"/>
+      <c r="AC25" s="81"/>
+      <c r="AD25" s="81"/>
+      <c r="AE25" s="81"/>
+      <c r="AF25" s="81"/>
+      <c r="AG25" s="81"/>
+      <c r="AH25" s="81"/>
+      <c r="AI25" s="81"/>
+      <c r="AJ25" s="81"/>
+      <c r="AK25" s="81"/>
+      <c r="AL25" s="81"/>
+      <c r="AM25" s="81"/>
+      <c r="AN25" s="81"/>
+      <c r="AO25" s="81"/>
+      <c r="AP25" s="81"/>
+      <c r="AQ25" s="81"/>
+      <c r="AR25" s="81"/>
+      <c r="AS25" s="81"/>
+      <c r="AT25" s="81"/>
+      <c r="AU25" s="81"/>
+      <c r="AV25" s="81"/>
+      <c r="AW25" s="81"/>
+      <c r="AX25" s="81"/>
+      <c r="AY25" s="81"/>
+      <c r="AZ25" s="82"/>
+      <c r="BA25" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB25" s="78"/>
+      <c r="BC25" s="78"/>
+      <c r="BD25" s="78"/>
+      <c r="BE25" s="78"/>
+      <c r="BF25" s="78"/>
+      <c r="BG25" s="78"/>
+      <c r="BH25" s="79"/>
       <c r="BI25" s="19"/>
       <c r="BJ25" s="3"/>
       <c r="BK25" s="1"/>
@@ -4383,46 +4435,42 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="S23:Z23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="S24:Z24"/>
-    <mergeCell ref="BA23:BH23"/>
-    <mergeCell ref="BA24:BH24"/>
-    <mergeCell ref="AA24:AZ24"/>
-    <mergeCell ref="AA23:AZ23"/>
-    <mergeCell ref="BA20:BH20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="S20:Z20"/>
-    <mergeCell ref="AG20:AZ20"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="S19:Z19"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="AF9:AK9"/>
-    <mergeCell ref="AL9:BI9"/>
-    <mergeCell ref="G6:BI6"/>
-    <mergeCell ref="G9:AE9"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:BI8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:BI7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="BA19:BH19"/>
-    <mergeCell ref="AG19:AZ19"/>
-    <mergeCell ref="DI12:DP12"/>
-    <mergeCell ref="DI16:DP16"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="BA13:BH13"/>
-    <mergeCell ref="BA14:BH14"/>
-    <mergeCell ref="BA15:BH15"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="S15:Z15"/>
+    <mergeCell ref="AA15:AH15"/>
+    <mergeCell ref="AI15:AZ15"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="S14:Z14"/>
+    <mergeCell ref="AA14:AH14"/>
+    <mergeCell ref="AI14:AZ14"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="S25:Z25"/>
+    <mergeCell ref="AA25:AZ25"/>
+    <mergeCell ref="BA25:BH25"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="K16:R16"/>
@@ -4439,42 +4487,46 @@
     <mergeCell ref="S13:Z13"/>
     <mergeCell ref="AA13:AH13"/>
     <mergeCell ref="AI13:AZ13"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="S25:Z25"/>
-    <mergeCell ref="AA25:AZ25"/>
-    <mergeCell ref="BA25:BH25"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="S14:Z14"/>
-    <mergeCell ref="AA14:AH14"/>
-    <mergeCell ref="AI14:AZ14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="S15:Z15"/>
-    <mergeCell ref="AA15:AH15"/>
-    <mergeCell ref="AI15:AZ15"/>
+    <mergeCell ref="BA19:BH19"/>
+    <mergeCell ref="AG19:AZ19"/>
+    <mergeCell ref="DI12:DP12"/>
+    <mergeCell ref="DI16:DP16"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="BA13:BH13"/>
+    <mergeCell ref="BA14:BH14"/>
+    <mergeCell ref="BA15:BH15"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="AF9:AK9"/>
+    <mergeCell ref="AL9:BI9"/>
+    <mergeCell ref="G6:BI6"/>
+    <mergeCell ref="G9:AE9"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:BI8"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:BI7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="S20:Z20"/>
+    <mergeCell ref="AG20:AZ20"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="S19:Z19"/>
+    <mergeCell ref="BA23:BH23"/>
+    <mergeCell ref="BA24:BH24"/>
+    <mergeCell ref="AA24:AZ24"/>
+    <mergeCell ref="AA23:AZ23"/>
+    <mergeCell ref="BA20:BH20"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="S23:Z23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="S24:Z24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -4493,8 +4545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="86" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScale="86" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4506,87 +4558,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="91" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="90" t="str">
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="106" t="str">
         <f>クラス仕様!R1</f>
         <v>データベース接続</v>
       </c>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="91" t="s">
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="90" t="str">
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="106" t="str">
         <f>クラス仕様!AE1</f>
         <v>データベース接続</v>
       </c>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90"/>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="91" t="s">
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
+      <c r="AM1" s="106"/>
+      <c r="AN1" s="106"/>
+      <c r="AO1" s="106"/>
+      <c r="AP1" s="106"/>
+      <c r="AQ1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="91"/>
-      <c r="AS1" s="91"/>
-      <c r="AT1" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
-      <c r="AW1" s="90"/>
-      <c r="AX1" s="90"/>
-      <c r="AY1" s="90"/>
-      <c r="AZ1" s="90"/>
-      <c r="BA1" s="91" t="s">
+      <c r="AR1" s="105"/>
+      <c r="AS1" s="105"/>
+      <c r="AT1" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU1" s="106"/>
+      <c r="AV1" s="106"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="106"/>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="106"/>
+      <c r="BA1" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="91"/>
-      <c r="BC1" s="91"/>
-      <c r="BD1" s="93">
+      <c r="BB1" s="105"/>
+      <c r="BC1" s="105"/>
+      <c r="BD1" s="108">
         <v>45908</v>
       </c>
-      <c r="BE1" s="93"/>
-      <c r="BF1" s="93"/>
-      <c r="BG1" s="93"/>
-      <c r="BH1" s="93"/>
-      <c r="BI1" s="93"/>
+      <c r="BE1" s="108"/>
+      <c r="BF1" s="108"/>
+      <c r="BG1" s="108"/>
+      <c r="BH1" s="108"/>
+      <c r="BI1" s="108"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -4786,80 +4838,80 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="91" t="s">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="91" t="s">
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="90" t="str">
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="106" t="str">
         <f>クラス仕様!G6</f>
         <v>ConnectionManager</v>
       </c>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="90"/>
-      <c r="AK2" s="90"/>
-      <c r="AL2" s="90"/>
-      <c r="AM2" s="90"/>
-      <c r="AN2" s="90"/>
-      <c r="AO2" s="90"/>
-      <c r="AP2" s="90"/>
-      <c r="AQ2" s="91" t="s">
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="106"/>
+      <c r="AH2" s="106"/>
+      <c r="AI2" s="106"/>
+      <c r="AJ2" s="106"/>
+      <c r="AK2" s="106"/>
+      <c r="AL2" s="106"/>
+      <c r="AM2" s="106"/>
+      <c r="AN2" s="106"/>
+      <c r="AO2" s="106"/>
+      <c r="AP2" s="106"/>
+      <c r="AQ2" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="91"/>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="90"/>
-      <c r="AU2" s="90"/>
-      <c r="AV2" s="90"/>
-      <c r="AW2" s="90"/>
-      <c r="AX2" s="90"/>
-      <c r="AY2" s="90"/>
-      <c r="AZ2" s="90"/>
-      <c r="BA2" s="91" t="s">
+      <c r="AR2" s="105"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="106"/>
+      <c r="AU2" s="106"/>
+      <c r="AV2" s="106"/>
+      <c r="AW2" s="106"/>
+      <c r="AX2" s="106"/>
+      <c r="AY2" s="106"/>
+      <c r="AZ2" s="106"/>
+      <c r="BA2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="91"/>
-      <c r="BC2" s="91"/>
-      <c r="BD2" s="93">
+      <c r="BB2" s="105"/>
+      <c r="BC2" s="105"/>
+      <c r="BD2" s="108">
         <v>45924</v>
       </c>
-      <c r="BE2" s="93"/>
-      <c r="BF2" s="93"/>
-      <c r="BG2" s="93"/>
-      <c r="BH2" s="93"/>
-      <c r="BI2" s="93"/>
+      <c r="BE2" s="108"/>
+      <c r="BF2" s="108"/>
+      <c r="BG2" s="108"/>
+      <c r="BH2" s="108"/>
+      <c r="BI2" s="108"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -5059,71 +5111,71 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="118" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="118"/>
-      <c r="AE4" s="118"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
-      <c r="AK4" s="118"/>
-      <c r="AL4" s="118"/>
-      <c r="AM4" s="118"/>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="118"/>
-      <c r="AR4" s="118"/>
-      <c r="AS4" s="118"/>
-      <c r="AT4" s="118"/>
-      <c r="AU4" s="118"/>
-      <c r="AV4" s="118"/>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="118"/>
-      <c r="AY4" s="118"/>
-      <c r="AZ4" s="118"/>
-      <c r="BA4" s="118"/>
-      <c r="BB4" s="118"/>
-      <c r="BC4" s="118"/>
-      <c r="BD4" s="118"/>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="118"/>
-      <c r="BG4" s="118"/>
-      <c r="BH4" s="118"/>
-      <c r="BI4" s="118"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="117" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="117"/>
+      <c r="AJ4" s="117"/>
+      <c r="AK4" s="117"/>
+      <c r="AL4" s="117"/>
+      <c r="AM4" s="117"/>
+      <c r="AN4" s="117"/>
+      <c r="AO4" s="117"/>
+      <c r="AP4" s="117"/>
+      <c r="AQ4" s="117"/>
+      <c r="AR4" s="117"/>
+      <c r="AS4" s="117"/>
+      <c r="AT4" s="117"/>
+      <c r="AU4" s="117"/>
+      <c r="AV4" s="117"/>
+      <c r="AW4" s="117"/>
+      <c r="AX4" s="117"/>
+      <c r="AY4" s="117"/>
+      <c r="AZ4" s="117"/>
+      <c r="BA4" s="117"/>
+      <c r="BB4" s="117"/>
+      <c r="BC4" s="117"/>
+      <c r="BD4" s="117"/>
+      <c r="BE4" s="117"/>
+      <c r="BF4" s="117"/>
+      <c r="BG4" s="117"/>
+      <c r="BH4" s="117"/>
+      <c r="BI4" s="117"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -5323,71 +5375,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="120" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="120"/>
-      <c r="Z5" s="120"/>
-      <c r="AA5" s="120"/>
-      <c r="AB5" s="120"/>
-      <c r="AC5" s="120"/>
-      <c r="AD5" s="120"/>
-      <c r="AE5" s="120"/>
-      <c r="AF5" s="120"/>
-      <c r="AG5" s="120"/>
-      <c r="AH5" s="120"/>
-      <c r="AI5" s="120"/>
-      <c r="AJ5" s="120"/>
-      <c r="AK5" s="120"/>
-      <c r="AL5" s="120"/>
-      <c r="AM5" s="120"/>
-      <c r="AN5" s="120"/>
-      <c r="AO5" s="120"/>
-      <c r="AP5" s="120"/>
-      <c r="AQ5" s="120"/>
-      <c r="AR5" s="120"/>
-      <c r="AS5" s="120"/>
-      <c r="AT5" s="120"/>
-      <c r="AU5" s="120"/>
-      <c r="AV5" s="120"/>
-      <c r="AW5" s="120"/>
-      <c r="AX5" s="120"/>
-      <c r="AY5" s="120"/>
-      <c r="AZ5" s="120"/>
-      <c r="BA5" s="120"/>
-      <c r="BB5" s="120"/>
-      <c r="BC5" s="120"/>
-      <c r="BD5" s="120"/>
-      <c r="BE5" s="120"/>
-      <c r="BF5" s="120"/>
-      <c r="BG5" s="120"/>
-      <c r="BH5" s="120"/>
-      <c r="BI5" s="120"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="119" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="119"/>
+      <c r="AH5" s="119"/>
+      <c r="AI5" s="119"/>
+      <c r="AJ5" s="119"/>
+      <c r="AK5" s="119"/>
+      <c r="AL5" s="119"/>
+      <c r="AM5" s="119"/>
+      <c r="AN5" s="119"/>
+      <c r="AO5" s="119"/>
+      <c r="AP5" s="119"/>
+      <c r="AQ5" s="119"/>
+      <c r="AR5" s="119"/>
+      <c r="AS5" s="119"/>
+      <c r="AT5" s="119"/>
+      <c r="AU5" s="119"/>
+      <c r="AV5" s="119"/>
+      <c r="AW5" s="119"/>
+      <c r="AX5" s="119"/>
+      <c r="AY5" s="119"/>
+      <c r="AZ5" s="119"/>
+      <c r="BA5" s="119"/>
+      <c r="BB5" s="119"/>
+      <c r="BC5" s="119"/>
+      <c r="BD5" s="119"/>
+      <c r="BE5" s="119"/>
+      <c r="BF5" s="119"/>
+      <c r="BG5" s="119"/>
+      <c r="BH5" s="119"/>
+      <c r="BI5" s="119"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -6114,71 +6166,71 @@
       <c r="B8" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99" t="s">
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="99" t="s">
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="99"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="99"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="99"/>
-      <c r="Z8" s="99"/>
-      <c r="AA8" s="99" t="s">
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="99"/>
-      <c r="AD8" s="99"/>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="99"/>
-      <c r="AH8" s="99"/>
-      <c r="AI8" s="99"/>
-      <c r="AJ8" s="99"/>
-      <c r="AK8" s="99"/>
-      <c r="AL8" s="99"/>
-      <c r="AM8" s="99"/>
-      <c r="AN8" s="99"/>
-      <c r="AO8" s="99"/>
-      <c r="AP8" s="99"/>
-      <c r="AQ8" s="99"/>
-      <c r="AR8" s="99"/>
-      <c r="AS8" s="99"/>
-      <c r="AT8" s="99"/>
-      <c r="AU8" s="99"/>
-      <c r="AV8" s="99"/>
-      <c r="AW8" s="99"/>
-      <c r="AX8" s="99"/>
-      <c r="AY8" s="99"/>
-      <c r="AZ8" s="99"/>
-      <c r="BA8" s="99"/>
-      <c r="BB8" s="99"/>
-      <c r="BC8" s="99"/>
-      <c r="BD8" s="99"/>
-      <c r="BE8" s="99"/>
-      <c r="BF8" s="99"/>
-      <c r="BG8" s="99"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
+      <c r="AS8" s="71"/>
+      <c r="AT8" s="71"/>
+      <c r="AU8" s="71"/>
+      <c r="AV8" s="71"/>
+      <c r="AW8" s="71"/>
+      <c r="AX8" s="71"/>
+      <c r="AY8" s="71"/>
+      <c r="AZ8" s="71"/>
+      <c r="BA8" s="71"/>
+      <c r="BB8" s="71"/>
+      <c r="BC8" s="71"/>
+      <c r="BD8" s="71"/>
+      <c r="BE8" s="71"/>
+      <c r="BF8" s="71"/>
+      <c r="BG8" s="71"/>
       <c r="BH8" s="19"/>
       <c r="BI8" s="35"/>
       <c r="BJ8" s="3"/>
@@ -6385,71 +6437,71 @@
       <c r="B9" s="29">
         <v>1</v>
       </c>
-      <c r="C9" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="113" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB9" s="113"/>
-      <c r="AC9" s="113"/>
-      <c r="AD9" s="113"/>
-      <c r="AE9" s="113"/>
-      <c r="AF9" s="113"/>
-      <c r="AG9" s="113"/>
-      <c r="AH9" s="113"/>
-      <c r="AI9" s="113"/>
-      <c r="AJ9" s="113"/>
-      <c r="AK9" s="113"/>
-      <c r="AL9" s="113"/>
-      <c r="AM9" s="113"/>
-      <c r="AN9" s="113"/>
-      <c r="AO9" s="113"/>
-      <c r="AP9" s="113"/>
-      <c r="AQ9" s="113"/>
-      <c r="AR9" s="113"/>
-      <c r="AS9" s="113"/>
-      <c r="AT9" s="113"/>
-      <c r="AU9" s="113"/>
-      <c r="AV9" s="113"/>
-      <c r="AW9" s="113"/>
-      <c r="AX9" s="113"/>
-      <c r="AY9" s="113"/>
-      <c r="AZ9" s="113"/>
-      <c r="BA9" s="113"/>
-      <c r="BB9" s="113"/>
-      <c r="BC9" s="113"/>
-      <c r="BD9" s="113"/>
-      <c r="BE9" s="113"/>
-      <c r="BF9" s="113"/>
-      <c r="BG9" s="113"/>
+      <c r="C9" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB9" s="114"/>
+      <c r="AC9" s="114"/>
+      <c r="AD9" s="114"/>
+      <c r="AE9" s="114"/>
+      <c r="AF9" s="114"/>
+      <c r="AG9" s="114"/>
+      <c r="AH9" s="114"/>
+      <c r="AI9" s="114"/>
+      <c r="AJ9" s="114"/>
+      <c r="AK9" s="114"/>
+      <c r="AL9" s="114"/>
+      <c r="AM9" s="114"/>
+      <c r="AN9" s="114"/>
+      <c r="AO9" s="114"/>
+      <c r="AP9" s="114"/>
+      <c r="AQ9" s="114"/>
+      <c r="AR9" s="114"/>
+      <c r="AS9" s="114"/>
+      <c r="AT9" s="114"/>
+      <c r="AU9" s="114"/>
+      <c r="AV9" s="114"/>
+      <c r="AW9" s="114"/>
+      <c r="AX9" s="114"/>
+      <c r="AY9" s="114"/>
+      <c r="AZ9" s="114"/>
+      <c r="BA9" s="114"/>
+      <c r="BB9" s="114"/>
+      <c r="BC9" s="114"/>
+      <c r="BD9" s="114"/>
+      <c r="BE9" s="114"/>
+      <c r="BF9" s="114"/>
+      <c r="BG9" s="114"/>
       <c r="BH9" s="19"/>
       <c r="BI9" s="35"/>
       <c r="BJ9" s="3"/>
@@ -7180,71 +7232,71 @@
       <c r="B12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99" t="s">
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99" t="s">
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="99" t="s">
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="99"/>
-      <c r="AH12" s="99"/>
-      <c r="AI12" s="99"/>
-      <c r="AJ12" s="99"/>
-      <c r="AK12" s="99"/>
-      <c r="AL12" s="99"/>
-      <c r="AM12" s="99"/>
-      <c r="AN12" s="99"/>
-      <c r="AO12" s="99"/>
-      <c r="AP12" s="99"/>
-      <c r="AQ12" s="99"/>
-      <c r="AR12" s="99"/>
-      <c r="AS12" s="99"/>
-      <c r="AT12" s="99"/>
-      <c r="AU12" s="99"/>
-      <c r="AV12" s="99"/>
-      <c r="AW12" s="99"/>
-      <c r="AX12" s="99"/>
-      <c r="AY12" s="99"/>
-      <c r="AZ12" s="99"/>
-      <c r="BA12" s="99"/>
-      <c r="BB12" s="99"/>
-      <c r="BC12" s="99"/>
-      <c r="BD12" s="99"/>
-      <c r="BE12" s="99"/>
-      <c r="BF12" s="99"/>
-      <c r="BG12" s="99"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="71"/>
+      <c r="AK12" s="71"/>
+      <c r="AL12" s="71"/>
+      <c r="AM12" s="71"/>
+      <c r="AN12" s="71"/>
+      <c r="AO12" s="71"/>
+      <c r="AP12" s="71"/>
+      <c r="AQ12" s="71"/>
+      <c r="AR12" s="71"/>
+      <c r="AS12" s="71"/>
+      <c r="AT12" s="71"/>
+      <c r="AU12" s="71"/>
+      <c r="AV12" s="71"/>
+      <c r="AW12" s="71"/>
+      <c r="AX12" s="71"/>
+      <c r="AY12" s="71"/>
+      <c r="AZ12" s="71"/>
+      <c r="BA12" s="71"/>
+      <c r="BB12" s="71"/>
+      <c r="BC12" s="71"/>
+      <c r="BD12" s="71"/>
+      <c r="BE12" s="71"/>
+      <c r="BF12" s="71"/>
+      <c r="BG12" s="71"/>
       <c r="BH12" s="19"/>
       <c r="BI12" s="35"/>
       <c r="BJ12" s="3"/>
@@ -7451,71 +7503,71 @@
       <c r="B13" s="29">
         <v>1</v>
       </c>
-      <c r="C13" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="113" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB13" s="113"/>
-      <c r="AC13" s="113"/>
-      <c r="AD13" s="113"/>
-      <c r="AE13" s="113"/>
-      <c r="AF13" s="113"/>
-      <c r="AG13" s="113"/>
-      <c r="AH13" s="113"/>
-      <c r="AI13" s="113"/>
-      <c r="AJ13" s="113"/>
-      <c r="AK13" s="113"/>
-      <c r="AL13" s="113"/>
-      <c r="AM13" s="113"/>
-      <c r="AN13" s="113"/>
-      <c r="AO13" s="113"/>
-      <c r="AP13" s="113"/>
-      <c r="AQ13" s="113"/>
-      <c r="AR13" s="113"/>
-      <c r="AS13" s="113"/>
-      <c r="AT13" s="113"/>
-      <c r="AU13" s="113"/>
-      <c r="AV13" s="113"/>
-      <c r="AW13" s="113"/>
-      <c r="AX13" s="113"/>
-      <c r="AY13" s="113"/>
-      <c r="AZ13" s="113"/>
-      <c r="BA13" s="113"/>
-      <c r="BB13" s="113"/>
-      <c r="BC13" s="113"/>
-      <c r="BD13" s="113"/>
-      <c r="BE13" s="113"/>
-      <c r="BF13" s="113"/>
-      <c r="BG13" s="113"/>
+      <c r="C13" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB13" s="114"/>
+      <c r="AC13" s="114"/>
+      <c r="AD13" s="114"/>
+      <c r="AE13" s="114"/>
+      <c r="AF13" s="114"/>
+      <c r="AG13" s="114"/>
+      <c r="AH13" s="114"/>
+      <c r="AI13" s="114"/>
+      <c r="AJ13" s="114"/>
+      <c r="AK13" s="114"/>
+      <c r="AL13" s="114"/>
+      <c r="AM13" s="114"/>
+      <c r="AN13" s="114"/>
+      <c r="AO13" s="114"/>
+      <c r="AP13" s="114"/>
+      <c r="AQ13" s="114"/>
+      <c r="AR13" s="114"/>
+      <c r="AS13" s="114"/>
+      <c r="AT13" s="114"/>
+      <c r="AU13" s="114"/>
+      <c r="AV13" s="114"/>
+      <c r="AW13" s="114"/>
+      <c r="AX13" s="114"/>
+      <c r="AY13" s="114"/>
+      <c r="AZ13" s="114"/>
+      <c r="BA13" s="114"/>
+      <c r="BB13" s="114"/>
+      <c r="BC13" s="114"/>
+      <c r="BD13" s="114"/>
+      <c r="BE13" s="114"/>
+      <c r="BF13" s="114"/>
+      <c r="BG13" s="114"/>
       <c r="BH13" s="19"/>
       <c r="BI13" s="35"/>
       <c r="BJ13" s="3"/>
@@ -8048,77 +8100,77 @@
       <c r="B16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="95" t="s">
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="95" t="s">
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="121" t="s">
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="113" t="s">
         <v>26</v>
       </c>
       <c r="AB16" s="97"/>
-      <c r="AC16" s="122" t="s">
+      <c r="AC16" s="115" t="s">
         <v>27</v>
       </c>
       <c r="AD16" s="97"/>
-      <c r="AE16" s="122" t="s">
+      <c r="AE16" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="AF16" s="103"/>
-      <c r="AG16" s="103"/>
-      <c r="AH16" s="103"/>
-      <c r="AI16" s="103"/>
-      <c r="AJ16" s="103"/>
-      <c r="AK16" s="103"/>
-      <c r="AL16" s="103"/>
-      <c r="AM16" s="103"/>
-      <c r="AN16" s="103"/>
-      <c r="AO16" s="103"/>
-      <c r="AP16" s="103"/>
-      <c r="AQ16" s="103"/>
-      <c r="AR16" s="103"/>
-      <c r="AS16" s="103"/>
-      <c r="AT16" s="103"/>
-      <c r="AU16" s="103"/>
-      <c r="AV16" s="103"/>
-      <c r="AW16" s="103"/>
-      <c r="AX16" s="103"/>
-      <c r="AY16" s="99" t="s">
+      <c r="AF16" s="96"/>
+      <c r="AG16" s="96"/>
+      <c r="AH16" s="96"/>
+      <c r="AI16" s="96"/>
+      <c r="AJ16" s="96"/>
+      <c r="AK16" s="96"/>
+      <c r="AL16" s="96"/>
+      <c r="AM16" s="96"/>
+      <c r="AN16" s="96"/>
+      <c r="AO16" s="96"/>
+      <c r="AP16" s="96"/>
+      <c r="AQ16" s="96"/>
+      <c r="AR16" s="96"/>
+      <c r="AS16" s="96"/>
+      <c r="AT16" s="96"/>
+      <c r="AU16" s="96"/>
+      <c r="AV16" s="96"/>
+      <c r="AW16" s="96"/>
+      <c r="AX16" s="96"/>
+      <c r="AY16" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="AZ16" s="99"/>
-      <c r="BA16" s="99"/>
-      <c r="BB16" s="99"/>
-      <c r="BC16" s="99"/>
-      <c r="BD16" s="99"/>
-      <c r="BE16" s="99"/>
-      <c r="BF16" s="99"/>
-      <c r="BG16" s="99"/>
+      <c r="AZ16" s="71"/>
+      <c r="BA16" s="71"/>
+      <c r="BB16" s="71"/>
+      <c r="BC16" s="71"/>
+      <c r="BD16" s="71"/>
+      <c r="BE16" s="71"/>
+      <c r="BF16" s="71"/>
+      <c r="BG16" s="71"/>
       <c r="BH16" s="19"/>
       <c r="BI16" s="35"/>
       <c r="BJ16" s="3"/>
@@ -8325,77 +8377,77 @@
       <c r="B17" s="29">
         <v>1</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="116" t="s">
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="AB17" s="117"/>
-      <c r="AC17" s="116" t="s">
+      <c r="AB17" s="112"/>
+      <c r="AC17" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="AD17" s="117"/>
-      <c r="AE17" s="114" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF17" s="105"/>
-      <c r="AG17" s="105"/>
-      <c r="AH17" s="105"/>
-      <c r="AI17" s="105"/>
-      <c r="AJ17" s="105"/>
-      <c r="AK17" s="105"/>
-      <c r="AL17" s="105"/>
-      <c r="AM17" s="105"/>
-      <c r="AN17" s="105"/>
-      <c r="AO17" s="105"/>
-      <c r="AP17" s="105"/>
-      <c r="AQ17" s="105"/>
-      <c r="AR17" s="105"/>
-      <c r="AS17" s="105"/>
-      <c r="AT17" s="105"/>
-      <c r="AU17" s="105"/>
-      <c r="AV17" s="105"/>
-      <c r="AW17" s="105"/>
-      <c r="AX17" s="105"/>
-      <c r="AY17" s="115" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ17" s="115"/>
-      <c r="BA17" s="115"/>
-      <c r="BB17" s="115"/>
-      <c r="BC17" s="115"/>
-      <c r="BD17" s="115"/>
-      <c r="BE17" s="115"/>
-      <c r="BF17" s="115"/>
-      <c r="BG17" s="115"/>
+      <c r="AD17" s="112"/>
+      <c r="AE17" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF17" s="88"/>
+      <c r="AG17" s="88"/>
+      <c r="AH17" s="88"/>
+      <c r="AI17" s="88"/>
+      <c r="AJ17" s="88"/>
+      <c r="AK17" s="88"/>
+      <c r="AL17" s="88"/>
+      <c r="AM17" s="88"/>
+      <c r="AN17" s="88"/>
+      <c r="AO17" s="88"/>
+      <c r="AP17" s="88"/>
+      <c r="AQ17" s="88"/>
+      <c r="AR17" s="88"/>
+      <c r="AS17" s="88"/>
+      <c r="AT17" s="88"/>
+      <c r="AU17" s="88"/>
+      <c r="AV17" s="88"/>
+      <c r="AW17" s="88"/>
+      <c r="AX17" s="88"/>
+      <c r="AY17" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ17" s="110"/>
+      <c r="BA17" s="110"/>
+      <c r="BB17" s="110"/>
+      <c r="BC17" s="110"/>
+      <c r="BD17" s="110"/>
+      <c r="BE17" s="110"/>
+      <c r="BF17" s="110"/>
+      <c r="BG17" s="110"/>
       <c r="BH17" s="19"/>
       <c r="BI17" s="35"/>
       <c r="BJ17" s="3"/>
@@ -8602,77 +8654,77 @@
       <c r="B18" s="29">
         <v>2</v>
       </c>
-      <c r="C18" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="116" t="s">
+      <c r="C18" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="86"/>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="AB18" s="117"/>
-      <c r="AC18" s="116" t="s">
+      <c r="AB18" s="112"/>
+      <c r="AC18" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="AD18" s="117"/>
-      <c r="AE18" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF18" s="105"/>
-      <c r="AG18" s="105"/>
-      <c r="AH18" s="105"/>
-      <c r="AI18" s="105"/>
-      <c r="AJ18" s="105"/>
-      <c r="AK18" s="105"/>
-      <c r="AL18" s="105"/>
-      <c r="AM18" s="105"/>
-      <c r="AN18" s="105"/>
-      <c r="AO18" s="105"/>
-      <c r="AP18" s="105"/>
-      <c r="AQ18" s="105"/>
-      <c r="AR18" s="105"/>
-      <c r="AS18" s="105"/>
-      <c r="AT18" s="105"/>
-      <c r="AU18" s="105"/>
-      <c r="AV18" s="105"/>
-      <c r="AW18" s="105"/>
-      <c r="AX18" s="105"/>
-      <c r="AY18" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ18" s="115"/>
-      <c r="BA18" s="115"/>
-      <c r="BB18" s="115"/>
-      <c r="BC18" s="115"/>
-      <c r="BD18" s="115"/>
-      <c r="BE18" s="115"/>
-      <c r="BF18" s="115"/>
-      <c r="BG18" s="115"/>
+      <c r="AD18" s="112"/>
+      <c r="AE18" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF18" s="88"/>
+      <c r="AG18" s="88"/>
+      <c r="AH18" s="88"/>
+      <c r="AI18" s="88"/>
+      <c r="AJ18" s="88"/>
+      <c r="AK18" s="88"/>
+      <c r="AL18" s="88"/>
+      <c r="AM18" s="88"/>
+      <c r="AN18" s="88"/>
+      <c r="AO18" s="88"/>
+      <c r="AP18" s="88"/>
+      <c r="AQ18" s="88"/>
+      <c r="AR18" s="88"/>
+      <c r="AS18" s="88"/>
+      <c r="AT18" s="88"/>
+      <c r="AU18" s="88"/>
+      <c r="AV18" s="88"/>
+      <c r="AW18" s="88"/>
+      <c r="AX18" s="88"/>
+      <c r="AY18" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ18" s="110"/>
+      <c r="BA18" s="110"/>
+      <c r="BB18" s="110"/>
+      <c r="BC18" s="110"/>
+      <c r="BD18" s="110"/>
+      <c r="BE18" s="110"/>
+      <c r="BF18" s="110"/>
+      <c r="BG18" s="110"/>
       <c r="BH18" s="19"/>
       <c r="BI18" s="35"/>
       <c r="BJ18" s="3"/>
@@ -9664,71 +9716,71 @@
       <c r="B22" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99" t="s">
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99" t="s">
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="99"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="99"/>
-      <c r="W22" s="99"/>
-      <c r="X22" s="99"/>
-      <c r="Y22" s="99"/>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="99" t="s">
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="99"/>
-      <c r="AD22" s="99"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="99"/>
-      <c r="AG22" s="99"/>
-      <c r="AH22" s="99"/>
-      <c r="AI22" s="99"/>
-      <c r="AJ22" s="99"/>
-      <c r="AK22" s="99"/>
-      <c r="AL22" s="99"/>
-      <c r="AM22" s="99"/>
-      <c r="AN22" s="99"/>
-      <c r="AO22" s="99"/>
-      <c r="AP22" s="99"/>
-      <c r="AQ22" s="99"/>
-      <c r="AR22" s="99"/>
-      <c r="AS22" s="99"/>
-      <c r="AT22" s="99"/>
-      <c r="AU22" s="99"/>
-      <c r="AV22" s="99"/>
-      <c r="AW22" s="99"/>
-      <c r="AX22" s="99"/>
-      <c r="AY22" s="99"/>
-      <c r="AZ22" s="99"/>
-      <c r="BA22" s="99"/>
-      <c r="BB22" s="99"/>
-      <c r="BC22" s="99"/>
-      <c r="BD22" s="99"/>
-      <c r="BE22" s="99"/>
-      <c r="BF22" s="99"/>
-      <c r="BG22" s="99"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="71"/>
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="71"/>
+      <c r="AH22" s="71"/>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="71"/>
+      <c r="AL22" s="71"/>
+      <c r="AM22" s="71"/>
+      <c r="AN22" s="71"/>
+      <c r="AO22" s="71"/>
+      <c r="AP22" s="71"/>
+      <c r="AQ22" s="71"/>
+      <c r="AR22" s="71"/>
+      <c r="AS22" s="71"/>
+      <c r="AT22" s="71"/>
+      <c r="AU22" s="71"/>
+      <c r="AV22" s="71"/>
+      <c r="AW22" s="71"/>
+      <c r="AX22" s="71"/>
+      <c r="AY22" s="71"/>
+      <c r="AZ22" s="71"/>
+      <c r="BA22" s="71"/>
+      <c r="BB22" s="71"/>
+      <c r="BC22" s="71"/>
+      <c r="BD22" s="71"/>
+      <c r="BE22" s="71"/>
+      <c r="BF22" s="71"/>
+      <c r="BG22" s="71"/>
       <c r="BH22" s="19"/>
       <c r="BI22" s="35"/>
       <c r="BJ22" s="3"/>
@@ -9935,71 +9987,71 @@
       <c r="B23" s="29">
         <v>1</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="T23" s="80"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="80"/>
-      <c r="Y23" s="80"/>
-      <c r="Z23" s="80"/>
-      <c r="AA23" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB23" s="113"/>
-      <c r="AC23" s="113"/>
-      <c r="AD23" s="113"/>
-      <c r="AE23" s="113"/>
-      <c r="AF23" s="113"/>
-      <c r="AG23" s="113"/>
-      <c r="AH23" s="113"/>
-      <c r="AI23" s="113"/>
-      <c r="AJ23" s="113"/>
-      <c r="AK23" s="113"/>
-      <c r="AL23" s="113"/>
-      <c r="AM23" s="113"/>
-      <c r="AN23" s="113"/>
-      <c r="AO23" s="113"/>
-      <c r="AP23" s="113"/>
-      <c r="AQ23" s="113"/>
-      <c r="AR23" s="113"/>
-      <c r="AS23" s="113"/>
-      <c r="AT23" s="113"/>
-      <c r="AU23" s="113"/>
-      <c r="AV23" s="113"/>
-      <c r="AW23" s="113"/>
-      <c r="AX23" s="113"/>
-      <c r="AY23" s="113"/>
-      <c r="AZ23" s="113"/>
-      <c r="BA23" s="113"/>
-      <c r="BB23" s="113"/>
-      <c r="BC23" s="113"/>
-      <c r="BD23" s="113"/>
-      <c r="BE23" s="113"/>
-      <c r="BF23" s="113"/>
-      <c r="BG23" s="113"/>
+      <c r="AB23" s="114"/>
+      <c r="AC23" s="114"/>
+      <c r="AD23" s="114"/>
+      <c r="AE23" s="114"/>
+      <c r="AF23" s="114"/>
+      <c r="AG23" s="114"/>
+      <c r="AH23" s="114"/>
+      <c r="AI23" s="114"/>
+      <c r="AJ23" s="114"/>
+      <c r="AK23" s="114"/>
+      <c r="AL23" s="114"/>
+      <c r="AM23" s="114"/>
+      <c r="AN23" s="114"/>
+      <c r="AO23" s="114"/>
+      <c r="AP23" s="114"/>
+      <c r="AQ23" s="114"/>
+      <c r="AR23" s="114"/>
+      <c r="AS23" s="114"/>
+      <c r="AT23" s="114"/>
+      <c r="AU23" s="114"/>
+      <c r="AV23" s="114"/>
+      <c r="AW23" s="114"/>
+      <c r="AX23" s="114"/>
+      <c r="AY23" s="114"/>
+      <c r="AZ23" s="114"/>
+      <c r="BA23" s="114"/>
+      <c r="BB23" s="114"/>
+      <c r="BC23" s="114"/>
+      <c r="BD23" s="114"/>
+      <c r="BE23" s="114"/>
+      <c r="BF23" s="114"/>
+      <c r="BG23" s="114"/>
       <c r="BH23" s="19"/>
       <c r="BI23" s="35"/>
       <c r="BJ23" s="3"/>
@@ -10206,71 +10258,71 @@
       <c r="B24" s="29">
         <v>2</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="T24" s="80"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="80"/>
-      <c r="X24" s="80"/>
-      <c r="Y24" s="80"/>
-      <c r="Z24" s="80"/>
-      <c r="AA24" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB24" s="113"/>
-      <c r="AC24" s="113"/>
-      <c r="AD24" s="113"/>
-      <c r="AE24" s="113"/>
-      <c r="AF24" s="113"/>
-      <c r="AG24" s="113"/>
-      <c r="AH24" s="113"/>
-      <c r="AI24" s="113"/>
-      <c r="AJ24" s="113"/>
-      <c r="AK24" s="113"/>
-      <c r="AL24" s="113"/>
-      <c r="AM24" s="113"/>
-      <c r="AN24" s="113"/>
-      <c r="AO24" s="113"/>
-      <c r="AP24" s="113"/>
-      <c r="AQ24" s="113"/>
-      <c r="AR24" s="113"/>
-      <c r="AS24" s="113"/>
-      <c r="AT24" s="113"/>
-      <c r="AU24" s="113"/>
-      <c r="AV24" s="113"/>
-      <c r="AW24" s="113"/>
-      <c r="AX24" s="113"/>
-      <c r="AY24" s="113"/>
-      <c r="AZ24" s="113"/>
-      <c r="BA24" s="113"/>
-      <c r="BB24" s="113"/>
-      <c r="BC24" s="113"/>
-      <c r="BD24" s="113"/>
-      <c r="BE24" s="113"/>
-      <c r="BF24" s="113"/>
-      <c r="BG24" s="113"/>
+      <c r="AB24" s="114"/>
+      <c r="AC24" s="114"/>
+      <c r="AD24" s="114"/>
+      <c r="AE24" s="114"/>
+      <c r="AF24" s="114"/>
+      <c r="AG24" s="114"/>
+      <c r="AH24" s="114"/>
+      <c r="AI24" s="114"/>
+      <c r="AJ24" s="114"/>
+      <c r="AK24" s="114"/>
+      <c r="AL24" s="114"/>
+      <c r="AM24" s="114"/>
+      <c r="AN24" s="114"/>
+      <c r="AO24" s="114"/>
+      <c r="AP24" s="114"/>
+      <c r="AQ24" s="114"/>
+      <c r="AR24" s="114"/>
+      <c r="AS24" s="114"/>
+      <c r="AT24" s="114"/>
+      <c r="AU24" s="114"/>
+      <c r="AV24" s="114"/>
+      <c r="AW24" s="114"/>
+      <c r="AX24" s="114"/>
+      <c r="AY24" s="114"/>
+      <c r="AZ24" s="114"/>
+      <c r="BA24" s="114"/>
+      <c r="BB24" s="114"/>
+      <c r="BC24" s="114"/>
+      <c r="BD24" s="114"/>
+      <c r="BE24" s="114"/>
+      <c r="BF24" s="114"/>
+      <c r="BG24" s="114"/>
       <c r="BH24" s="19"/>
       <c r="BI24" s="35"/>
       <c r="BJ24" s="3"/>
@@ -10996,67 +11048,67 @@
     </row>
     <row r="27" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="111"/>
-      <c r="W27" s="111"/>
-      <c r="X27" s="111"/>
-      <c r="Y27" s="111"/>
-      <c r="Z27" s="111"/>
-      <c r="AA27" s="111"/>
-      <c r="AB27" s="111"/>
-      <c r="AC27" s="111"/>
-      <c r="AD27" s="111"/>
-      <c r="AE27" s="111"/>
-      <c r="AF27" s="111"/>
-      <c r="AG27" s="111"/>
-      <c r="AH27" s="111"/>
-      <c r="AI27" s="111"/>
-      <c r="AJ27" s="111"/>
-      <c r="AK27" s="111"/>
-      <c r="AL27" s="111"/>
-      <c r="AM27" s="111"/>
-      <c r="AN27" s="111"/>
-      <c r="AO27" s="111"/>
-      <c r="AP27" s="111"/>
-      <c r="AQ27" s="111"/>
-      <c r="AR27" s="111"/>
-      <c r="AS27" s="111"/>
-      <c r="AT27" s="111"/>
-      <c r="AU27" s="111"/>
-      <c r="AV27" s="111"/>
-      <c r="AW27" s="111"/>
-      <c r="AX27" s="111"/>
-      <c r="AY27" s="111"/>
-      <c r="AZ27" s="111"/>
-      <c r="BA27" s="111"/>
-      <c r="BB27" s="111"/>
-      <c r="BC27" s="111"/>
-      <c r="BD27" s="111"/>
-      <c r="BE27" s="111"/>
-      <c r="BF27" s="111"/>
-      <c r="BG27" s="111"/>
-      <c r="BH27" s="112"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="121"/>
+      <c r="U27" s="121"/>
+      <c r="V27" s="121"/>
+      <c r="W27" s="121"/>
+      <c r="X27" s="121"/>
+      <c r="Y27" s="121"/>
+      <c r="Z27" s="121"/>
+      <c r="AA27" s="121"/>
+      <c r="AB27" s="121"/>
+      <c r="AC27" s="121"/>
+      <c r="AD27" s="121"/>
+      <c r="AE27" s="121"/>
+      <c r="AF27" s="121"/>
+      <c r="AG27" s="121"/>
+      <c r="AH27" s="121"/>
+      <c r="AI27" s="121"/>
+      <c r="AJ27" s="121"/>
+      <c r="AK27" s="121"/>
+      <c r="AL27" s="121"/>
+      <c r="AM27" s="121"/>
+      <c r="AN27" s="121"/>
+      <c r="AO27" s="121"/>
+      <c r="AP27" s="121"/>
+      <c r="AQ27" s="121"/>
+      <c r="AR27" s="121"/>
+      <c r="AS27" s="121"/>
+      <c r="AT27" s="121"/>
+      <c r="AU27" s="121"/>
+      <c r="AV27" s="121"/>
+      <c r="AW27" s="121"/>
+      <c r="AX27" s="121"/>
+      <c r="AY27" s="121"/>
+      <c r="AZ27" s="121"/>
+      <c r="BA27" s="121"/>
+      <c r="BB27" s="121"/>
+      <c r="BC27" s="121"/>
+      <c r="BD27" s="121"/>
+      <c r="BE27" s="121"/>
+      <c r="BF27" s="121"/>
+      <c r="BG27" s="121"/>
+      <c r="BH27" s="122"/>
       <c r="BI27" s="39"/>
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
@@ -11259,7 +11311,7 @@
     <row r="28" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="21" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -11778,7 +11830,7 @@
     <row r="30" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
       <c r="B30" s="34" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -12296,7 +12348,7 @@
     <row r="32" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34"/>
       <c r="B32" s="34" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -13595,67 +13647,67 @@
     </row>
     <row r="37" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
-      <c r="B37" s="110" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="111"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="111"/>
-      <c r="Q37" s="111"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="111"/>
-      <c r="T37" s="111"/>
-      <c r="U37" s="111"/>
-      <c r="V37" s="111"/>
-      <c r="W37" s="111"/>
-      <c r="X37" s="111"/>
-      <c r="Y37" s="111"/>
-      <c r="Z37" s="111"/>
-      <c r="AA37" s="111"/>
-      <c r="AB37" s="111"/>
-      <c r="AC37" s="111"/>
-      <c r="AD37" s="111"/>
-      <c r="AE37" s="111"/>
-      <c r="AF37" s="111"/>
-      <c r="AG37" s="111"/>
-      <c r="AH37" s="111"/>
-      <c r="AI37" s="111"/>
-      <c r="AJ37" s="111"/>
-      <c r="AK37" s="111"/>
-      <c r="AL37" s="111"/>
-      <c r="AM37" s="111"/>
-      <c r="AN37" s="111"/>
-      <c r="AO37" s="111"/>
-      <c r="AP37" s="111"/>
-      <c r="AQ37" s="111"/>
-      <c r="AR37" s="111"/>
-      <c r="AS37" s="111"/>
-      <c r="AT37" s="111"/>
-      <c r="AU37" s="111"/>
-      <c r="AV37" s="111"/>
-      <c r="AW37" s="111"/>
-      <c r="AX37" s="111"/>
-      <c r="AY37" s="111"/>
-      <c r="AZ37" s="111"/>
-      <c r="BA37" s="111"/>
-      <c r="BB37" s="111"/>
-      <c r="BC37" s="111"/>
-      <c r="BD37" s="111"/>
-      <c r="BE37" s="111"/>
-      <c r="BF37" s="111"/>
-      <c r="BG37" s="111"/>
-      <c r="BH37" s="112"/>
+      <c r="B37" s="120" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="121"/>
+      <c r="L37" s="121"/>
+      <c r="M37" s="121"/>
+      <c r="N37" s="121"/>
+      <c r="O37" s="121"/>
+      <c r="P37" s="121"/>
+      <c r="Q37" s="121"/>
+      <c r="R37" s="121"/>
+      <c r="S37" s="121"/>
+      <c r="T37" s="121"/>
+      <c r="U37" s="121"/>
+      <c r="V37" s="121"/>
+      <c r="W37" s="121"/>
+      <c r="X37" s="121"/>
+      <c r="Y37" s="121"/>
+      <c r="Z37" s="121"/>
+      <c r="AA37" s="121"/>
+      <c r="AB37" s="121"/>
+      <c r="AC37" s="121"/>
+      <c r="AD37" s="121"/>
+      <c r="AE37" s="121"/>
+      <c r="AF37" s="121"/>
+      <c r="AG37" s="121"/>
+      <c r="AH37" s="121"/>
+      <c r="AI37" s="121"/>
+      <c r="AJ37" s="121"/>
+      <c r="AK37" s="121"/>
+      <c r="AL37" s="121"/>
+      <c r="AM37" s="121"/>
+      <c r="AN37" s="121"/>
+      <c r="AO37" s="121"/>
+      <c r="AP37" s="121"/>
+      <c r="AQ37" s="121"/>
+      <c r="AR37" s="121"/>
+      <c r="AS37" s="121"/>
+      <c r="AT37" s="121"/>
+      <c r="AU37" s="121"/>
+      <c r="AV37" s="121"/>
+      <c r="AW37" s="121"/>
+      <c r="AX37" s="121"/>
+      <c r="AY37" s="121"/>
+      <c r="AZ37" s="121"/>
+      <c r="BA37" s="121"/>
+      <c r="BB37" s="121"/>
+      <c r="BC37" s="121"/>
+      <c r="BD37" s="121"/>
+      <c r="BE37" s="121"/>
+      <c r="BF37" s="121"/>
+      <c r="BG37" s="121"/>
+      <c r="BH37" s="122"/>
       <c r="BI37" s="22"/>
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
@@ -13858,7 +13910,7 @@
     <row r="38" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="34" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D38" s="54"/>
       <c r="E38" s="54"/>
@@ -14107,7 +14159,7 @@
       <c r="A39" s="21"/>
       <c r="B39" s="34"/>
       <c r="C39" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D39" s="54"/>
       <c r="E39" s="54"/>
@@ -14601,7 +14653,7 @@
     <row r="41" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
       <c r="B41" s="34" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D41" s="54"/>
       <c r="E41" s="54"/>
@@ -14850,7 +14902,7 @@
       <c r="A42" s="21"/>
       <c r="B42" s="34"/>
       <c r="C42" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42" s="54"/>
       <c r="E42" s="54"/>
@@ -16400,12 +16452,56 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="AY16:BG16"/>
-    <mergeCell ref="AY17:BG17"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="S16:Z16"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="B37:BH37"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="S23:Z23"/>
+    <mergeCell ref="AA23:BG23"/>
+    <mergeCell ref="B27:BH27"/>
+    <mergeCell ref="AE18:AX18"/>
+    <mergeCell ref="AY18:BG18"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="S24:Z24"/>
+    <mergeCell ref="AA24:BG24"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="S18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="S22:Z22"/>
+    <mergeCell ref="AA22:BG22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="AA9:BG9"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="AA8:BG8"/>
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="AC17:AD17"/>
@@ -16422,56 +16518,12 @@
     <mergeCell ref="AE16:AX16"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="AE17:AX17"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="AA9:BG9"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="AA8:BG8"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="AE18:AX18"/>
-    <mergeCell ref="AY18:BG18"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="S24:Z24"/>
-    <mergeCell ref="AA24:BG24"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="S18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="S22:Z22"/>
-    <mergeCell ref="AA22:BG22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="B37:BH37"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="S23:Z23"/>
-    <mergeCell ref="AA23:BG23"/>
-    <mergeCell ref="B27:BH27"/>
+    <mergeCell ref="AY16:BG16"/>
+    <mergeCell ref="AY17:BG17"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="S16:Z16"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S17:Z17"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="3">
@@ -16499,6 +16551,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -16630,15 +16691,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
   <ds:schemaRefs>
@@ -16649,6 +16701,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11CFAB00-E59E-479F-AE56-68D6BEAC86FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16664,12 +16724,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>